--- a/backend/csv/modifiedData.xlsx
+++ b/backend/csv/modifiedData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,10 +506,10 @@
         <v>1/x</v>
       </c>
       <c r="AI1" t="str">
-        <v>FD-F1</v>
+        <v>Last Commit-First Commit</v>
       </c>
       <c r="AJ1" t="str">
-        <v>F1</v>
+        <v>First Commit</v>
       </c>
       <c r="AK1" t="str">
         <v>Last commit</v>
@@ -526,61 +526,61 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B2" t="str">
-        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>1aa93b8cee39dc4982c8485fdbb43df560b6d3ab</v>
       </c>
       <c r="C2" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:1aa93b8cee39dc4982c8485fdbb43df560b6d3ab</v>
       </c>
       <c r="D2" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E2" t="str">
-        <v>ehsxmng</v>
+        <v>etomaos</v>
       </c>
       <c r="F2" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Tomasz Ostrowski T</v>
       </c>
       <c r="G2" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H2" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I2" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J2" t="str">
-        <v>lte/ebb</v>
+        <v>5g/if/iro</v>
       </c>
       <c r="K2" t="str">
-        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
+        <v>[SP:12603-SP1] Counters definitions for HARQ &amp; RBsym monitoring</v>
       </c>
       <c r="L2" t="str">
-        <v>2023-11-18</v>
+        <v>2024-04-23</v>
       </c>
       <c r="M2" t="str">
-        <v>2023-11-18</v>
+        <v>2024-04-23</v>
       </c>
       <c r="N2" t="str">
         <v>source</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -598,25 +598,25 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA2">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.74</v>
+        <v>10.07</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -624,651 +624,2835 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B3" t="str">
-        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>4619c149de3f7f5a8c2b64427fc119b8c35e587f</v>
       </c>
       <c r="C3" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4619c149de3f7f5a8c2b64427fc119b8c35e587f</v>
       </c>
       <c r="D3" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E3" t="str">
-        <v>ehsxmng</v>
+        <v>etomaje</v>
       </c>
       <c r="F3" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Tomasz Majewski X</v>
       </c>
       <c r="G3" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H3" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I3" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J3" t="str">
-        <v>lte/ebb</v>
+        <v>5g/if/iro</v>
       </c>
       <c r="K3" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs</v>
+        <v>[SP:12603-SP1] Introduce new MCS counters</v>
       </c>
       <c r="L3" t="str">
-        <v>2023-12-16</v>
+        <v>2024-04-24</v>
       </c>
       <c r="M3" t="str">
-        <v>2023-12-16</v>
+        <v>2024-04-24</v>
       </c>
       <c r="N3" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O3">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q3">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="R3">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AA3">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="AB3">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="AC3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AD3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>35.11</v>
+        <v>11.66</v>
       </c>
       <c r="AF3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>3.57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B4" t="str">
-        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>4e6bf732d5cd49270986e60ed5d67616ec5a2d8b</v>
       </c>
       <c r="C4" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4e6bf732d5cd49270986e60ed5d67616ec5a2d8b</v>
       </c>
       <c r="D4" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E4" t="str">
-        <v>ehsxmng</v>
+        <v>eciemac</v>
       </c>
       <c r="F4" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Maciej Cieslewicz</v>
       </c>
       <c r="G4" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H4" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I4" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J4" t="str">
-        <v>lte/ebb</v>
+        <v>5g/if/pm-du</v>
       </c>
       <c r="K4" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
+        <v>[SP:12603-SP1] PM Events and EBS Counters</v>
       </c>
       <c r="L4" t="str">
-        <v>2023-12-20</v>
+        <v>2024-04-25</v>
       </c>
       <c r="M4" t="str">
-        <v>2023-12-20</v>
+        <v>2024-04-25</v>
       </c>
       <c r="N4" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O4">
+        <v>1214</v>
+      </c>
+      <c r="P4">
+        <v>107</v>
+      </c>
+      <c r="Q4">
+        <v>1107</v>
+      </c>
+      <c r="R4">
+        <v>1321</v>
+      </c>
+      <c r="S4">
+        <v>34</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1214</v>
+      </c>
+      <c r="Z4">
+        <v>107</v>
+      </c>
+      <c r="AA4">
+        <v>1107</v>
+      </c>
+      <c r="AB4">
+        <v>1321</v>
+      </c>
+      <c r="AC4">
+        <v>34</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>36.11</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>-3</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>-3</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>0.56</v>
-      </c>
-      <c r="AE4">
-        <v>35.48</v>
-      </c>
-      <c r="AF4">
-        <v>32</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
       <c r="AH4">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B5" t="str">
-        <v>f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+        <v>53426c4112ace043033642cc9dc90bfe18eb1ad7</v>
       </c>
       <c r="C5" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:53426c4112ace043033642cc9dc90bfe18eb1ad7</v>
       </c>
       <c r="D5" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E5" t="str">
-        <v>earubut</v>
+        <v>etomaje</v>
       </c>
       <c r="F5" t="str">
-        <v>Arun Butte</v>
+        <v>Tomasz Majewski X</v>
       </c>
       <c r="G5" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H5" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I5" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J5" t="str">
-        <v>lte/ebb</v>
+        <v>5g/if/pm-du</v>
       </c>
       <c r="K5" t="str">
-        <v>[SP:11022-SP12] Support additonal USS in UPCUE DL</v>
+        <v>[SP:12603-SP1] Add PM Ebsn counter</v>
       </c>
       <c r="L5" t="str">
-        <v>2023-12-28</v>
+        <v>2024-04-25</v>
       </c>
       <c r="M5" t="str">
-        <v>2023-12-28</v>
+        <v>2024-04-25</v>
       </c>
       <c r="N5" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O5">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="R5">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="T5">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="AA5">
-        <v>440</v>
+        <v>166</v>
       </c>
       <c r="AB5">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AD5">
-        <v>21.54</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>41.91</v>
+        <v>42.81</v>
       </c>
       <c r="AF5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AG5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B6" t="str">
-        <v>947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+        <v>f4e3241b056340de390db0d7f5009c307ec7c280</v>
       </c>
       <c r="C6" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f4e3241b056340de390db0d7f5009c307ec7c280</v>
       </c>
       <c r="D6" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E6" t="str">
-        <v>eyatlee</v>
+        <v>etomaje</v>
       </c>
       <c r="F6" t="str">
-        <v>Yat Tat Lee</v>
+        <v>Tomasz Majewski X</v>
       </c>
       <c r="G6" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H6" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I6" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J6" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K6" t="str">
-        <v>[SP:11022-SP12] Aggressive USS AL candList dractl</v>
+        <v>[SP:12603-SP1] Handling of HARQ counter NRMCS_MCS_PER_UE_MAC_HARQ_DL_FAIL</v>
       </c>
       <c r="L6" t="str">
-        <v>2023-12-29</v>
+        <v>2024-06-27</v>
       </c>
       <c r="M6" t="str">
-        <v>2023-12-30</v>
+        <v>2024-06-27</v>
       </c>
       <c r="N6" t="str">
         <v>source test</v>
       </c>
       <c r="O6">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="P6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="R6">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6">
-        <v>945</v>
+        <v>264</v>
       </c>
       <c r="U6">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="V6">
-        <v>934</v>
+        <v>152</v>
       </c>
       <c r="W6">
-        <v>956</v>
+        <v>376</v>
       </c>
       <c r="X6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Y6">
-        <v>1142</v>
+        <v>295</v>
       </c>
       <c r="Z6">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="AA6">
-        <v>1120</v>
+        <v>171</v>
       </c>
       <c r="AB6">
-        <v>1164</v>
+        <v>419</v>
       </c>
       <c r="AC6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>69.87</v>
+        <v>6.44</v>
       </c>
       <c r="AE6">
-        <v>80.15</v>
+        <v>43.61</v>
       </c>
       <c r="AF6">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AH6">
-        <v>50</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B7" t="str">
-        <v>908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+        <v>5fce2c9ed1aa45a86432b4c5e9ce26c38bb0e0b5</v>
       </c>
       <c r="C7" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:5fce2c9ed1aa45a86432b4c5e9ce26c38bb0e0b5</v>
       </c>
       <c r="D7" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E7" t="str">
-        <v>etcholi</v>
+        <v>etomaos</v>
       </c>
       <c r="F7" t="str">
-        <v>Olimpia Martyre Tchakounte Wounkep</v>
+        <v>Tomasz Ostrowski T</v>
       </c>
       <c r="G7" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H7" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I7" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J7" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K7" t="str">
-        <v>[SP:11022-SP12] Support Additional USS UPCUE UL</v>
+        <v>[SP:12603-SP1] US4a UL PUSCH RBSym usage with DRB granularity (PCell)</v>
       </c>
       <c r="L7" t="str">
-        <v>2024-01-05</v>
+        <v>2024-06-27</v>
       </c>
       <c r="M7" t="str">
-        <v>2024-01-05</v>
+        <v>2024-06-27</v>
       </c>
       <c r="N7" t="str">
         <v>source test</v>
       </c>
       <c r="O7">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="Q7">
+        <v>127</v>
+      </c>
+      <c r="R7">
+        <v>205</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>80</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="V7">
+        <v>64</v>
+      </c>
+      <c r="W7">
+        <v>96</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>246</v>
+      </c>
+      <c r="Z7">
+        <v>55</v>
+      </c>
+      <c r="AA7">
+        <v>191</v>
+      </c>
+      <c r="AB7">
+        <v>301</v>
+      </c>
+      <c r="AC7">
         <v>10</v>
       </c>
-      <c r="R7">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>348</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>348</v>
-      </c>
-      <c r="W7">
-        <v>348</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>365</v>
-      </c>
-      <c r="Z7">
-        <v>7</v>
-      </c>
-      <c r="AA7">
-        <v>358</v>
-      </c>
-      <c r="AB7">
-        <v>372</v>
-      </c>
-      <c r="AC7">
-        <v>4</v>
-      </c>
       <c r="AD7">
-        <v>87.46</v>
+        <v>8.08</v>
       </c>
       <c r="AE7">
-        <v>84.56</v>
+        <v>47.4</v>
       </c>
       <c r="AF7">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AG7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>11022-SP12</v>
+        <v>12603-SP1</v>
       </c>
       <c r="B8" t="str">
-        <v>f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+        <v>4929e38be8b429920cf134a7a81a19078687aadc</v>
       </c>
       <c r="C8" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4929e38be8b429920cf134a7a81a19078687aadc</v>
       </c>
       <c r="D8" t="str">
-        <v>gerrit</v>
+        <v>gerrit-delta</v>
       </c>
       <c r="E8" t="str">
-        <v>ejanhng</v>
+        <v>eciemac</v>
       </c>
       <c r="F8" t="str">
-        <v>Jian Huang</v>
+        <v>Maciej Cieslewicz</v>
       </c>
       <c r="G8" t="str">
-        <v>Ottawa</v>
+        <v>Lodz</v>
       </c>
       <c r="H8" t="str">
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="I8" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
       </c>
       <c r="J8" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K8" t="str">
-        <v>[SP:11022-SP12] Fix for unconfigured aggressive USS candidates list</v>
+        <v>[SP:12603-SP1] Struct/tests update for NREXTCAUPCCI_SCELL_UL_MAC_CTRL_ELEM_IND</v>
       </c>
       <c r="L8" t="str">
-        <v>2024-02-16</v>
+        <v>2024-06-29</v>
       </c>
       <c r="M8" t="str">
-        <v>2024-02-16</v>
+        <v>2024-06-29</v>
       </c>
       <c r="N8" t="str">
         <v>source test</v>
       </c>
       <c r="O8">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="R8">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="V8">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>248</v>
+        <v>432</v>
       </c>
       <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>240</v>
+      </c>
+      <c r="Z8">
+        <v>222</v>
+      </c>
+      <c r="AA8">
+        <v>18</v>
+      </c>
+      <c r="AB8">
+        <v>462</v>
+      </c>
+      <c r="AC8">
+        <v>16</v>
+      </c>
+      <c r="AD8">
+        <v>15.48</v>
+      </c>
+      <c r="AE8">
+        <v>47.95</v>
+      </c>
+      <c r="AF8">
+        <v>67</v>
+      </c>
+      <c r="AG8">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>327</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8">
-        <v>322</v>
-      </c>
-      <c r="AB8">
-        <v>332</v>
-      </c>
-      <c r="AC8">
-        <v>9</v>
-      </c>
-      <c r="AD8">
-        <v>100</v>
-      </c>
-      <c r="AE8">
-        <v>100</v>
-      </c>
-      <c r="AF8">
-        <v>90</v>
-      </c>
-      <c r="AG8">
-        <v>42</v>
-      </c>
       <c r="AH8">
-        <v>2.38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="AI9">
+      <c r="A9" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>5e4b4628cedfb3ac78b0e813525847b3c13ccc6c</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:5e4b4628cedfb3ac78b0e813525847b3c13ccc6c</v>
+      </c>
+      <c r="D9" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ltejenkins</v>
+      </c>
+      <c r="F9" t="str">
+        <v>LTE account for Jenkins</v>
+      </c>
+      <c r="G9" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I9" t="str">
+        <v>BNEW EUIR RP CIP C CI &amp; Production C</v>
+      </c>
+      <c r="J9" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K9" t="str">
+        <v>[SP:12603-SP1] add SC to control the functionality</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2024-06-28</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2024-06-30</v>
+      </c>
+      <c r="N9" t="str">
+        <v>source</v>
+      </c>
+      <c r="O9">
+        <v>92</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>92</v>
+      </c>
+      <c r="R9">
+        <v>92</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>92</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>92</v>
+      </c>
+      <c r="AB9">
+        <v>92</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>15.48</v>
+      </c>
+      <c r="AE9">
+        <v>49.66</v>
+      </c>
+      <c r="AF9">
+        <v>68</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>7853d9c6bef3395f708281dda798b86a55eb4e99</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:7853d9c6bef3395f708281dda798b86a55eb4e99</v>
+      </c>
+      <c r="D10" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E10" t="str">
+        <v>eciemac</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Maciej Cieslewicz</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I10" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J10" t="str">
+        <v>5g/if/pm-du</v>
+      </c>
+      <c r="K10" t="str">
+        <v>[SP:12603-SP1] PM Events and EBS Counters description modification</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2024-07-03</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2024-07-03</v>
+      </c>
+      <c r="N10" t="str">
+        <v>source</v>
+      </c>
+      <c r="O10">
+        <v>49</v>
+      </c>
+      <c r="P10">
+        <v>49</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>98</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>49</v>
+      </c>
+      <c r="Z10">
+        <v>49</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>98</v>
+      </c>
+      <c r="AC10">
+        <v>16</v>
+      </c>
+      <c r="AD10">
+        <v>15.48</v>
+      </c>
+      <c r="AE10">
+        <v>51.47</v>
+      </c>
+      <c r="AF10">
+        <v>71</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+      <c r="AH10">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>14b987ba2e3ac1c66a7667ab17b3242e36f5035d</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:14b987ba2e3ac1c66a7667ab17b3242e36f5035d</v>
+      </c>
+      <c r="D11" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E11" t="str">
+        <v>epiopod</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Piotr Podsiedzik</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I11" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J11" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K11" t="str">
+        <v>[SP:12603-SP1] add SC to control the functionality</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2024-07-03</v>
+      </c>
+      <c r="M11" t="str">
+        <v>2024-07-03</v>
+      </c>
+      <c r="N11" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O11">
+        <v>26</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>44</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>36</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>18</v>
+      </c>
+      <c r="AB11">
+        <v>54</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>15.65</v>
+      </c>
+      <c r="AE11">
+        <v>52.29</v>
+      </c>
+      <c r="AF11">
+        <v>71</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ff13709e1f6f515bfc8183b552d7072adf8e23df</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:ff13709e1f6f515bfc8183b552d7072adf8e23df</v>
+      </c>
+      <c r="D12" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ekraali</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Alicja Krautsztrung</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I12" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J12" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K12" t="str">
+        <v>[SP:12603-SP1] NREXTCAUPCCI_TO_PCELL_OFFLOAD_PM_UPDATE_IND handling change</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2024-07-09</v>
+      </c>
+      <c r="M12" t="str">
+        <v>2024-07-10</v>
+      </c>
+      <c r="N12" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O12">
+        <v>75</v>
+      </c>
+      <c r="P12">
+        <v>379</v>
+      </c>
+      <c r="Q12">
+        <v>-304</v>
+      </c>
+      <c r="R12">
+        <v>454</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>17</v>
+      </c>
+      <c r="U12">
+        <v>221</v>
+      </c>
+      <c r="V12">
+        <v>-204</v>
+      </c>
+      <c r="W12">
+        <v>238</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>92</v>
+      </c>
+      <c r="Z12">
+        <v>600</v>
+      </c>
+      <c r="AA12">
+        <v>-508</v>
+      </c>
+      <c r="AB12">
+        <v>692</v>
+      </c>
+      <c r="AC12">
+        <v>19</v>
+      </c>
+      <c r="AD12">
+        <v>19.73</v>
+      </c>
+      <c r="AE12">
+        <v>60.69</v>
+      </c>
+      <c r="AF12">
+        <v>78</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>560808271c0c1294131c17c322cfe18407f3bed2</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:560808271c0c1294131c17c322cfe18407f3bed2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E13" t="str">
+        <v>qkryola</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Krzysztof Olas XX</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I13" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J13" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K13" t="str">
+        <v>[SP:12603-SP1] US4b UL PUSCH RBSym usage with DRB granularity (SCell)</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2024-07-12</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2024-07-12</v>
+      </c>
+      <c r="N13" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O13">
+        <v>138</v>
+      </c>
+      <c r="P13">
+        <v>107</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+      <c r="R13">
+        <v>245</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>116</v>
+      </c>
+      <c r="U13">
+        <v>60</v>
+      </c>
+      <c r="V13">
+        <v>56</v>
+      </c>
+      <c r="W13">
+        <v>176</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>254</v>
+      </c>
+      <c r="Z13">
+        <v>167</v>
+      </c>
+      <c r="AA13">
+        <v>87</v>
+      </c>
+      <c r="AB13">
+        <v>421</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <v>22.74</v>
+      </c>
+      <c r="AE13">
+        <v>65.22</v>
+      </c>
+      <c r="AF13">
+        <v>80</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>a3aef16cb57d239fae2abcbabb689bfce541e647</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:a3aef16cb57d239fae2abcbabb689bfce541e647</v>
+      </c>
+      <c r="D14" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E14" t="str">
+        <v>ekraali</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Alicja Krautsztrung</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I14" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J14" t="str">
+        <v>5g/if/e5lif</v>
+      </c>
+      <c r="K14" t="str">
+        <v>[SP:12603-SP1] Add new parameters to E5CA_PM_UPDATE_IND</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2024-07-15</v>
+      </c>
+      <c r="M14" t="str">
+        <v>2024-07-15</v>
+      </c>
+      <c r="N14" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O14">
+        <v>52</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>47</v>
+      </c>
+      <c r="R14">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>53</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>47</v>
+      </c>
+      <c r="AB14">
+        <v>59</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>22.78</v>
+      </c>
+      <c r="AE14">
+        <v>66.28</v>
+      </c>
+      <c r="AF14">
+        <v>83</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AH14">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>f0d3471c510cba621280b5b6fa6fc19e19546c82</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f0d3471c510cba621280b5b6fa6fc19e19546c82</v>
+      </c>
+      <c r="D15" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E15" t="str">
+        <v>etomaje</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Tomasz Majewski X</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I15" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J15" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K15" t="str">
+        <v>[SP:12603-SP1] Handling of HARQ fail counter for fastCA.</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2024-07-18</v>
+      </c>
+      <c r="M15" t="str">
+        <v>2024-07-18</v>
+      </c>
+      <c r="N15" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>175</v>
+      </c>
+      <c r="U15">
+        <v>16</v>
+      </c>
+      <c r="V15">
+        <v>159</v>
+      </c>
+      <c r="W15">
+        <v>191</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>183</v>
+      </c>
+      <c r="Z15">
+        <v>21</v>
+      </c>
+      <c r="AA15">
+        <v>162</v>
+      </c>
+      <c r="AB15">
+        <v>204</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>26.05</v>
+      </c>
+      <c r="AE15">
+        <v>66.52</v>
+      </c>
+      <c r="AF15">
+        <v>86</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>bac48880df8775aaf7040bae5b04358f09ae08fa</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:bac48880df8775aaf7040bae5b04358f09ae08fa</v>
+      </c>
+      <c r="D16" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E16" t="str">
+        <v>eciemac</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Maciej Cieslewicz</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I16" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J16" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K16" t="str">
+        <v>[SP:12603-SP1] Traces updates for UPCUEULNR.2207/.1516/.2181</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2024-07-19</v>
+      </c>
+      <c r="M16" t="str">
+        <v>2024-07-19</v>
+      </c>
+      <c r="N16" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O16">
+        <v>73</v>
+      </c>
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16">
+        <v>51</v>
+      </c>
+      <c r="R16">
+        <v>95</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>77</v>
+      </c>
+      <c r="Z16">
+        <v>22</v>
+      </c>
+      <c r="AA16">
+        <v>55</v>
+      </c>
+      <c r="AB16">
+        <v>99</v>
+      </c>
+      <c r="AC16">
+        <v>12</v>
+      </c>
+      <c r="AD16">
+        <v>26.12</v>
+      </c>
+      <c r="AE16">
+        <v>68.28</v>
+      </c>
+      <c r="AF16">
+        <v>87</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>e2fbe2beb66ac8c575269ae55b753ac77e6eaf20</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:e2fbe2beb66ac8c575269ae55b753ac77e6eaf20</v>
+      </c>
+      <c r="D17" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E17" t="str">
+        <v>ekraali</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Alicja Krautsztrung</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I17" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J17" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K17" t="str">
+        <v>[SP:12603-SP1] DL HARQ observability interworking with CA</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2024-07-20</v>
+      </c>
+      <c r="M17" t="str">
+        <v>2024-07-21</v>
+      </c>
+      <c r="N17" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O17">
+        <v>447</v>
+      </c>
+      <c r="P17">
+        <v>68</v>
+      </c>
+      <c r="Q17">
+        <v>379</v>
+      </c>
+      <c r="R17">
+        <v>515</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
+      </c>
+      <c r="T17">
+        <v>712</v>
+      </c>
+      <c r="U17">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>690</v>
+      </c>
+      <c r="W17">
+        <v>734</v>
+      </c>
+      <c r="X17">
+        <v>19</v>
+      </c>
+      <c r="Y17">
+        <v>1159</v>
+      </c>
+      <c r="Z17">
         <v>90</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AA17">
+        <v>1069</v>
+      </c>
+      <c r="AB17">
+        <v>1249</v>
+      </c>
+      <c r="AC17">
+        <v>35</v>
+      </c>
+      <c r="AD17">
+        <v>38.69</v>
+      </c>
+      <c r="AE17">
+        <v>77.81</v>
+      </c>
+      <c r="AF17">
+        <v>89</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>d782b7bba4cdf1b26f3cf30ca809e6711c58fd47</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:d782b7bba4cdf1b26f3cf30ca809e6711c58fd47</v>
+      </c>
+      <c r="D18" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ekraali</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Alicja Krautsztrung</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I18" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J18" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K18" t="str">
+        <v>[SP:12603-SP1] MCS post buffer size improvement</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2024-07-25</v>
+      </c>
+      <c r="M18" t="str">
+        <v>2024-07-25</v>
+      </c>
+      <c r="N18" t="str">
+        <v>source</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>3</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>38.69</v>
+      </c>
+      <c r="AE18">
+        <v>77.9</v>
+      </c>
+      <c r="AF18">
+        <v>93</v>
+      </c>
+      <c r="AG18">
+        <v>4</v>
+      </c>
+      <c r="AH18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>295f7849d72a448dcc8d28adb0efe42e523d18b8</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:295f7849d72a448dcc8d28adb0efe42e523d18b8</v>
+      </c>
+      <c r="D19" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E19" t="str">
+        <v>ezacwoj</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Wojciech Zacharski</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I19" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J19" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K19" t="str">
+        <v>[SP:12603-SP1] ulObsPerUeMacHarqIncludeScellEnable SC removal</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2024-08-06</v>
+      </c>
+      <c r="M19" t="str">
+        <v>2024-08-06</v>
+      </c>
+      <c r="N19" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>115</v>
+      </c>
+      <c r="Q19">
+        <v>-98</v>
+      </c>
+      <c r="R19">
+        <v>132</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>-14</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>130</v>
+      </c>
+      <c r="AA19">
+        <v>-112</v>
+      </c>
+      <c r="AB19">
+        <v>148</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>38.96</v>
+      </c>
+      <c r="AE19">
+        <v>80.34</v>
+      </c>
+      <c r="AF19">
+        <v>105</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>f7d2ed73d015572e48a2dccbad625e38c3944f64</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f7d2ed73d015572e48a2dccbad625e38c3944f64</v>
+      </c>
+      <c r="D20" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E20" t="str">
+        <v>ezacwoj</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Wojciech Zacharski</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I20" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J20" t="str">
+        <v>5g/if/pm-du</v>
+      </c>
+      <c r="K20" t="str">
+        <v>[SP:12603-SP1] PM Events and EBS Counters description modification</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2024-08-12</v>
+      </c>
+      <c r="M20" t="str">
+        <v>2024-08-12</v>
+      </c>
+      <c r="N20" t="str">
+        <v>source</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>49</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>98</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>49</v>
+      </c>
+      <c r="Z20">
+        <v>49</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>98</v>
+      </c>
+      <c r="AC20">
+        <v>16</v>
+      </c>
+      <c r="AD20">
+        <v>38.96</v>
+      </c>
+      <c r="AE20">
+        <v>82.16</v>
+      </c>
+      <c r="AF20">
+        <v>111</v>
+      </c>
+      <c r="AG20">
+        <v>6</v>
+      </c>
+      <c r="AH20">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>20208b4e9456471d19a5623c19d15248647ff651</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:20208b4e9456471d19a5623c19d15248647ff651</v>
+      </c>
+      <c r="D21" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E21" t="str">
+        <v>etomaos</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Tomasz Ostrowski T</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I21" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J21" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K21" t="str">
+        <v>[SP:12603-SP1] US2 &amp; US3 new HARQ and pathloss counters</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2024-06-16</v>
+      </c>
+      <c r="M21" t="str">
+        <v>2024-08-28</v>
+      </c>
+      <c r="N21" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O21">
+        <v>212</v>
+      </c>
+      <c r="P21">
+        <v>40</v>
+      </c>
+      <c r="Q21">
+        <v>172</v>
+      </c>
+      <c r="R21">
+        <v>252</v>
+      </c>
+      <c r="S21">
+        <v>9</v>
+      </c>
+      <c r="T21">
+        <v>1334</v>
+      </c>
+      <c r="U21">
+        <v>252</v>
+      </c>
+      <c r="V21">
+        <v>1082</v>
+      </c>
+      <c r="W21">
+        <v>1586</v>
+      </c>
+      <c r="X21">
+        <v>21</v>
+      </c>
+      <c r="Y21">
+        <v>1546</v>
+      </c>
+      <c r="Z21">
+        <v>292</v>
+      </c>
+      <c r="AA21">
+        <v>1254</v>
+      </c>
+      <c r="AB21">
+        <v>1838</v>
+      </c>
+      <c r="AC21">
+        <v>30</v>
+      </c>
+      <c r="AD21">
+        <v>66.12</v>
+      </c>
+      <c r="AE21">
+        <v>86.82</v>
+      </c>
+      <c r="AF21">
+        <v>127</v>
+      </c>
+      <c r="AG21">
+        <v>16</v>
+      </c>
+      <c r="AH21">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>12603-SP1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>3dad73e6548ff98ecede0c0cb8612c47e25169ac</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://gerrit-delta.gic.ericsson.se/q/commit:3dad73e6548ff98ecede0c0cb8612c47e25169ac</v>
+      </c>
+      <c r="D22" t="str">
+        <v>gerrit-delta</v>
+      </c>
+      <c r="E22" t="str">
+        <v>eciemac</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Maciej Cieslewicz</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Lodz</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="I22" t="str">
+        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+      </c>
+      <c r="J22" t="str">
+        <v>5g/if/pm-du</v>
+      </c>
+      <c r="K22" t="str">
+        <v>[SP:12603-SP1] Updated status to USED</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2024-10-04</v>
+      </c>
+      <c r="M22" t="str">
+        <v>2024-10-04</v>
+      </c>
+      <c r="N22" t="str">
+        <v>source</v>
+      </c>
+      <c r="O22">
+        <v>84</v>
+      </c>
+      <c r="P22">
+        <v>84</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>168</v>
+      </c>
+      <c r="S22">
+        <v>21</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>84</v>
+      </c>
+      <c r="Z22">
+        <v>84</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>168</v>
+      </c>
+      <c r="AC22">
+        <v>21</v>
+      </c>
+      <c r="AD22">
+        <v>66.12</v>
+      </c>
+      <c r="AE22">
+        <v>89.93</v>
+      </c>
+      <c r="AF22">
+        <v>164</v>
+      </c>
+      <c r="AG22">
+        <v>37</v>
+      </c>
+      <c r="AH22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B23" t="str">
+        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+      </c>
+      <c r="D23" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E23" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I23" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J23" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K23" t="str">
+        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
+      </c>
+      <c r="L23" t="str">
         <v>2023-11-18</v>
       </c>
-      <c r="AK9" t="str">
+      <c r="M23" t="str">
+        <v>2023-11-18</v>
+      </c>
+      <c r="N23" t="str">
+        <v>source</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>66.12</v>
+      </c>
+      <c r="AE23">
+        <v>90.01</v>
+      </c>
+      <c r="AF23">
+        <v>-157</v>
+      </c>
+      <c r="AG23">
+        <v>-321</v>
+      </c>
+      <c r="AH23">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B24" t="str">
+        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
+      </c>
+      <c r="D24" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E24" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I24" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J24" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K24" t="str">
+        <v>[SP:11022-SP12] AggresiveUss SCs</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2023-12-16</v>
+      </c>
+      <c r="M24" t="str">
+        <v>2023-12-16</v>
+      </c>
+      <c r="N24" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O24">
+        <v>184</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>181</v>
+      </c>
+      <c r="R24">
+        <v>187</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>192</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>189</v>
+      </c>
+      <c r="AB24">
+        <v>195</v>
+      </c>
+      <c r="AC24">
+        <v>9</v>
+      </c>
+      <c r="AD24">
+        <v>66.26</v>
+      </c>
+      <c r="AE24">
+        <v>93.47</v>
+      </c>
+      <c r="AF24">
+        <v>-129</v>
+      </c>
+      <c r="AG24">
+        <v>28</v>
+      </c>
+      <c r="AH24">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+      </c>
+      <c r="D25" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E25" t="str">
+        <v>ehsxmng</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Ming-Chen Hsu</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I25" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J25" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K25" t="str">
+        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2023-12-20</v>
+      </c>
+      <c r="M25" t="str">
+        <v>2023-12-20</v>
+      </c>
+      <c r="N25" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>-3</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>-3</v>
+      </c>
+      <c r="AB25">
+        <v>5</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>66.31</v>
+      </c>
+      <c r="AE25">
+        <v>93.5</v>
+      </c>
+      <c r="AF25">
+        <v>-125</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B26" t="str">
+        <v>f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+      </c>
+      <c r="D26" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E26" t="str">
+        <v>earubut</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Arun Butte</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I26" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J26" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K26" t="str">
+        <v>[SP:11022-SP12] Support additonal USS in UPCUE DL</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2023-12-28</v>
+      </c>
+      <c r="M26" t="str">
+        <v>2023-12-28</v>
+      </c>
+      <c r="N26" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <v>35</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>415</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>415</v>
+      </c>
+      <c r="W26">
+        <v>415</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>445</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AA26">
+        <v>440</v>
+      </c>
+      <c r="AB26">
+        <v>450</v>
+      </c>
+      <c r="AC26">
+        <v>5</v>
+      </c>
+      <c r="AD26">
+        <v>73.42</v>
+      </c>
+      <c r="AE26">
+        <v>94.15</v>
+      </c>
+      <c r="AF26">
+        <v>-117</v>
+      </c>
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B27" t="str">
+        <v>947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+      </c>
+      <c r="D27" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E27" t="str">
+        <v>eyatlee</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Yat Tat Lee</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I27" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J27" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K27" t="str">
+        <v>[SP:11022-SP12] Aggressive USS AL candList dractl</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2023-12-29</v>
+      </c>
+      <c r="M27" t="str">
+        <v>2023-12-30</v>
+      </c>
+      <c r="N27" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O27">
+        <v>197</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>186</v>
+      </c>
+      <c r="R27">
+        <v>208</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>945</v>
+      </c>
+      <c r="U27">
+        <v>11</v>
+      </c>
+      <c r="V27">
+        <v>934</v>
+      </c>
+      <c r="W27">
+        <v>956</v>
+      </c>
+      <c r="X27">
+        <v>14</v>
+      </c>
+      <c r="Y27">
+        <v>1142</v>
+      </c>
+      <c r="Z27">
+        <v>22</v>
+      </c>
+      <c r="AA27">
+        <v>1120</v>
+      </c>
+      <c r="AB27">
+        <v>1164</v>
+      </c>
+      <c r="AC27">
+        <v>17</v>
+      </c>
+      <c r="AD27">
+        <v>89.79</v>
+      </c>
+      <c r="AE27">
+        <v>98</v>
+      </c>
+      <c r="AF27">
+        <v>-115</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B28" t="str">
+        <v>908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+      </c>
+      <c r="D28" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E28" t="str">
+        <v>etcholi</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Olimpia Martyre Tchakounte Wounkep</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I28" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J28" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K28" t="str">
+        <v>[SP:11022-SP12] Support Additional USS UPCUE UL</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2024-01-05</v>
+      </c>
+      <c r="M28" t="str">
+        <v>2024-01-05</v>
+      </c>
+      <c r="N28" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O28">
+        <v>17</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>348</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>348</v>
+      </c>
+      <c r="W28">
+        <v>348</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>365</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>358</v>
+      </c>
+      <c r="AB28">
+        <v>372</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>95.75</v>
+      </c>
+      <c r="AE28">
+        <v>98.45</v>
+      </c>
+      <c r="AF28">
+        <v>-109</v>
+      </c>
+      <c r="AG28">
+        <v>6</v>
+      </c>
+      <c r="AH28">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>11022-SP12</v>
+      </c>
+      <c r="B29" t="str">
+        <v>f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+      </c>
+      <c r="D29" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ejanhng</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Jian Huang</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I29" t="str">
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+      </c>
+      <c r="J29" t="str">
+        <v>lte/ebb</v>
+      </c>
+      <c r="K29" t="str">
+        <v>[SP:11022-SP12] Fix for unconfigured aggressive USS candidates list</v>
+      </c>
+      <c r="L29" t="str">
         <v>2024-02-16</v>
       </c>
-      <c r="AL9">
-        <v>544</v>
-      </c>
-      <c r="AM9">
-        <v>1978</v>
-      </c>
-      <c r="AN9">
-        <v>2522</v>
+      <c r="M29" t="str">
+        <v>2024-02-16</v>
+      </c>
+      <c r="N29" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O29">
+        <v>79</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>74</v>
+      </c>
+      <c r="R29">
+        <v>84</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>248</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>248</v>
+      </c>
+      <c r="W29">
+        <v>248</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>327</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>322</v>
+      </c>
+      <c r="AB29">
+        <v>332</v>
+      </c>
+      <c r="AC29">
+        <v>9</v>
+      </c>
+      <c r="AD29">
+        <v>100</v>
+      </c>
+      <c r="AE29">
+        <v>100</v>
+      </c>
+      <c r="AF29">
+        <v>-67</v>
+      </c>
+      <c r="AG29">
+        <v>42</v>
+      </c>
+      <c r="AH29">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="AI30">
+        <v>-67</v>
+      </c>
+      <c r="AJ30" t="str">
+        <v>2024-04-23</v>
+      </c>
+      <c r="AK30" t="str">
+        <v>2024-02-16</v>
+      </c>
+      <c r="AL30">
+        <v>5403</v>
+      </c>
+      <c r="AM30">
+        <v>5839</v>
+      </c>
+      <c r="AN30">
+        <v>11242</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AN9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AN30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/csv/modifiedData.xlsx
+++ b/backend/csv/modifiedData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,61 +526,61 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B2" t="str">
-        <v>1aa93b8cee39dc4982c8485fdbb43df560b6d3ab</v>
+        <v>bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</v>
       </c>
       <c r="C2" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:1aa93b8cee39dc4982c8485fdbb43df560b6d3ab</v>
+        <v>https://gerrit.ericsson.se/q/commit:bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</v>
       </c>
       <c r="D2" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E2" t="str">
-        <v>etomaos</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F2" t="str">
-        <v>Tomasz Ostrowski T</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G2" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H2" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I2" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J2" t="str">
         <v>5g/if/iro</v>
       </c>
       <c r="K2" t="str">
-        <v>[SP:12603-SP1] Counters definitions for HARQ &amp; RBsym monitoring</v>
+        <v>[SP:11160-SP4] Adds RwrTrigger value TRAFFIC_STEERING</v>
       </c>
       <c r="L2" t="str">
-        <v>2024-04-23</v>
+        <v>2023-07-14</v>
       </c>
       <c r="M2" t="str">
-        <v>2024-04-23</v>
+        <v>2023-07-14</v>
       </c>
       <c r="N2" t="str">
         <v>source</v>
       </c>
       <c r="O2">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -598,25 +598,25 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.07</v>
+        <v>0.16</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -624,97 +624,97 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B3" t="str">
-        <v>4619c149de3f7f5a8c2b64427fc119b8c35e587f</v>
+        <v>f232e2b65bc4d630d56828e67b7488d38836b7bc</v>
       </c>
       <c r="C3" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4619c149de3f7f5a8c2b64427fc119b8c35e587f</v>
+        <v>https://gerrit.ericsson.se/q/commit:f232e2b65bc4d630d56828e67b7488d38836b7bc</v>
       </c>
       <c r="D3" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E3" t="str">
-        <v>etomaje</v>
+        <v>etobkon</v>
       </c>
       <c r="F3" t="str">
-        <v>Tomasz Majewski X</v>
+        <v>Tobias König</v>
       </c>
       <c r="G3" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H3" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I3" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J3" t="str">
-        <v>5g/if/iro</v>
+        <v>5g/rc</v>
       </c>
       <c r="K3" t="str">
-        <v>[SP:12603-SP1] Introduce new MCS counters</v>
+        <v>[SP:11160-SP4] Adds system constant bwtishoWithRwrEnable</v>
       </c>
       <c r="L3" t="str">
-        <v>2024-04-24</v>
+        <v>2023-07-15</v>
       </c>
       <c r="M3" t="str">
-        <v>2024-04-24</v>
+        <v>2023-07-15</v>
       </c>
       <c r="N3" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O3">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="R3">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="S3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y3">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="Z3">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="AA3">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="AB3">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="AC3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AE3">
-        <v>11.66</v>
+        <v>16.07</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -728,412 +728,412 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B4" t="str">
-        <v>4e6bf732d5cd49270986e60ed5d67616ec5a2d8b</v>
+        <v>dc811601cafd85f82c1eb2d42f6e5a88349a4d37</v>
       </c>
       <c r="C4" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4e6bf732d5cd49270986e60ed5d67616ec5a2d8b</v>
+        <v>https://gerrit.ericsson.se/q/commit:dc811601cafd85f82c1eb2d42f6e5a88349a4d37</v>
       </c>
       <c r="D4" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E4" t="str">
-        <v>eciemac</v>
+        <v>etobkon</v>
       </c>
       <c r="F4" t="str">
-        <v>Maciej Cieslewicz</v>
+        <v>Tobias König</v>
       </c>
       <c r="G4" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H4" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I4" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J4" t="str">
-        <v>5g/if/pm-du</v>
+        <v>5g/rc</v>
       </c>
       <c r="K4" t="str">
-        <v>[SP:12603-SP1] PM Events and EBS Counters</v>
+        <v>[SP:11160-SP4] UE, Add traffic_eval::Release to TmoTBwtisho</v>
       </c>
       <c r="L4" t="str">
-        <v>2024-04-25</v>
+        <v>2023-07-17</v>
       </c>
       <c r="M4" t="str">
-        <v>2024-04-25</v>
+        <v>2023-07-17</v>
       </c>
       <c r="N4" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O4">
-        <v>1214</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1107</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>1321</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>1214</v>
+        <v>31</v>
       </c>
       <c r="Z4">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1107</v>
+        <v>31</v>
       </c>
       <c r="AB4">
-        <v>1321</v>
+        <v>31</v>
       </c>
       <c r="AC4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>7.27</v>
       </c>
       <c r="AE4">
-        <v>36.11</v>
+        <v>16.54</v>
       </c>
       <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
         <v>2</v>
       </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
       <c r="AH4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B5" t="str">
-        <v>53426c4112ace043033642cc9dc90bfe18eb1ad7</v>
+        <v>f0a062620d5af2c91bdb231d9a176c7fb4681145</v>
       </c>
       <c r="C5" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:53426c4112ace043033642cc9dc90bfe18eb1ad7</v>
+        <v>https://gerrit.ericsson.se/q/commit:f0a062620d5af2c91bdb231d9a176c7fb4681145</v>
       </c>
       <c r="D5" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E5" t="str">
-        <v>etomaje</v>
+        <v>eramobt</v>
       </c>
       <c r="F5" t="str">
-        <v>Tomasz Majewski X</v>
+        <v>Morgan Bergkvist</v>
       </c>
       <c r="G5" t="str">
-        <v>Lodz</v>
+        <v>Linköping</v>
       </c>
       <c r="H5" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I5" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS TPS PB Product B</v>
       </c>
       <c r="J5" t="str">
-        <v>5g/if/pm-du</v>
+        <v>5g/rc</v>
       </c>
       <c r="K5" t="str">
-        <v>[SP:12603-SP1] Add PM Ebsn counter</v>
+        <v>[SP:11160-SP4] TC: Add RWR to BWTISHO handling</v>
       </c>
       <c r="L5" t="str">
-        <v>2024-04-25</v>
+        <v>2023-07-18</v>
       </c>
       <c r="M5" t="str">
-        <v>2024-04-25</v>
+        <v>2023-07-18</v>
       </c>
       <c r="N5" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O5">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="P5">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q5">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="R5">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="S5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y5">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="Z5">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AA5">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="AB5">
-        <v>362</v>
+        <v>568</v>
       </c>
       <c r="AC5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>15.72</v>
       </c>
       <c r="AE5">
-        <v>42.81</v>
+        <v>39.55</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B6" t="str">
-        <v>f4e3241b056340de390db0d7f5009c307ec7c280</v>
+        <v>974d021fed30f61d2b6c03a70fc8b42a4e39dc48</v>
       </c>
       <c r="C6" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f4e3241b056340de390db0d7f5009c307ec7c280</v>
+        <v>https://gerrit.ericsson.se/q/commit:974d021fed30f61d2b6c03a70fc8b42a4e39dc48</v>
       </c>
       <c r="D6" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E6" t="str">
-        <v>etomaje</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F6" t="str">
-        <v>Tomasz Majewski X</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G6" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H6" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I6" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J6" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K6" t="str">
-        <v>[SP:12603-SP1] Handling of HARQ counter NRMCS_MCS_PER_UE_MAC_HARQ_DL_FAIL</v>
+        <v>[SP:11160-SP4] MCT: tc133_bwtisho_with_rwr_at_pdu_session_setup</v>
       </c>
       <c r="L6" t="str">
-        <v>2024-06-27</v>
+        <v>2023-07-20</v>
       </c>
       <c r="M6" t="str">
-        <v>2024-06-27</v>
+        <v>2023-07-20</v>
       </c>
       <c r="N6" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="U6">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="V6">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="W6">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="Z6">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AA6">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="AB6">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="AC6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>6.44</v>
+        <v>22.56</v>
       </c>
       <c r="AE6">
-        <v>43.61</v>
+        <v>39.55</v>
       </c>
       <c r="AF6">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="AG6">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>1.59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B7" t="str">
-        <v>5fce2c9ed1aa45a86432b4c5e9ce26c38bb0e0b5</v>
+        <v>30cead9b0ee739e4d90fcb4568f2703fb068638e</v>
       </c>
       <c r="C7" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:5fce2c9ed1aa45a86432b4c5e9ce26c38bb0e0b5</v>
+        <v>https://gerrit.ericsson.se/q/commit:30cead9b0ee739e4d90fcb4568f2703fb068638e</v>
       </c>
       <c r="D7" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E7" t="str">
-        <v>etomaos</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F7" t="str">
-        <v>Tomasz Ostrowski T</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G7" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H7" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I7" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J7" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K7" t="str">
-        <v>[SP:12603-SP1] US4a UL PUSCH RBSym usage with DRB granularity (PCell)</v>
+        <v>[SP:11160-SP4] MCT: tc134_bwtisho_at_pdu_session_setup_rwr_low_prio</v>
       </c>
       <c r="L7" t="str">
-        <v>2024-06-27</v>
+        <v>2023-07-20</v>
       </c>
       <c r="M7" t="str">
-        <v>2024-06-27</v>
+        <v>2023-07-20</v>
       </c>
       <c r="N7" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O7">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="W7">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="Z7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="AB7">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>8.08</v>
+        <v>31.19</v>
       </c>
       <c r="AE7">
-        <v>47.4</v>
+        <v>39.55</v>
       </c>
       <c r="AF7">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1144,162 +1144,162 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B8" t="str">
-        <v>4929e38be8b429920cf134a7a81a19078687aadc</v>
+        <v>ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</v>
       </c>
       <c r="C8" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:4929e38be8b429920cf134a7a81a19078687aadc</v>
+        <v>https://gerrit.ericsson.se/q/commit:ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</v>
       </c>
       <c r="D8" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E8" t="str">
-        <v>eciemac</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F8" t="str">
-        <v>Maciej Cieslewicz</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G8" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H8" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I8" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J8" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K8" t="str">
-        <v>[SP:12603-SP1] Struct/tests update for NREXTCAUPCCI_SCELL_UL_MAC_CTRL_ELEM_IND</v>
+        <v>[SP:11160-SP4] Sets default value of bwtishoWithRwrEnable to enabled</v>
       </c>
       <c r="L8" t="str">
-        <v>2024-06-29</v>
+        <v>2023-07-21</v>
       </c>
       <c r="M8" t="str">
-        <v>2024-06-29</v>
+        <v>2023-07-31</v>
       </c>
       <c r="N8" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="Z8">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="AA8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>462</v>
+        <v>22</v>
       </c>
       <c r="AC8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AD8">
-        <v>15.48</v>
+        <v>31.19</v>
       </c>
       <c r="AE8">
-        <v>47.95</v>
+        <v>41.26</v>
       </c>
       <c r="AF8">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AH8">
-        <v>50</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B9" t="str">
-        <v>5e4b4628cedfb3ac78b0e813525847b3c13ccc6c</v>
+        <v>c308027bf010fc9b22c6ed714f61f47049592e08</v>
       </c>
       <c r="C9" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:5e4b4628cedfb3ac78b0e813525847b3c13ccc6c</v>
+        <v>https://gerrit.ericsson.se/q/commit:c308027bf010fc9b22c6ed714f61f47049592e08</v>
       </c>
       <c r="D9" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E9" t="str">
-        <v>ltejenkins</v>
+        <v>etobkon</v>
       </c>
       <c r="F9" t="str">
-        <v>LTE account for Jenkins</v>
+        <v>Tobias König</v>
       </c>
       <c r="G9" t="str">
-        <v>unknown</v>
+        <v>SE</v>
       </c>
       <c r="H9" t="str">
         <v>Sweden</v>
       </c>
       <c r="I9" t="str">
-        <v>BNEW EUIR RP CIP C CI &amp; Production C</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J9" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K9" t="str">
-        <v>[SP:12603-SP1] add SC to control the functionality</v>
+        <v>[SP:11160-SP4] Add counter pmRwrEutranUeSuccTs</v>
       </c>
       <c r="L9" t="str">
-        <v>2024-06-28</v>
+        <v>2023-08-02</v>
       </c>
       <c r="M9" t="str">
-        <v>2024-06-30</v>
+        <v>2023-08-02</v>
       </c>
       <c r="N9" t="str">
         <v>source</v>
       </c>
       <c r="O9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="R9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -1320,964 +1320,964 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AB9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AC9">
         <v>2</v>
       </c>
       <c r="AD9">
-        <v>15.48</v>
+        <v>31.19</v>
       </c>
       <c r="AE9">
-        <v>49.66</v>
+        <v>44.38</v>
       </c>
       <c r="AF9">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B10" t="str">
-        <v>7853d9c6bef3395f708281dda798b86a55eb4e99</v>
+        <v>6d4330a6bea3fc0c26c13e86b3674e1173183d84</v>
       </c>
       <c r="C10" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:7853d9c6bef3395f708281dda798b86a55eb4e99</v>
+        <v>https://gerrit.ericsson.se/q/commit:6d4330a6bea3fc0c26c13e86b3674e1173183d84</v>
       </c>
       <c r="D10" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E10" t="str">
-        <v>eciemac</v>
+        <v>etobkon</v>
       </c>
       <c r="F10" t="str">
-        <v>Maciej Cieslewicz</v>
+        <v>Tobias König</v>
       </c>
       <c r="G10" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H10" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I10" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J10" t="str">
-        <v>5g/if/pm-du</v>
+        <v>5g/rc</v>
       </c>
       <c r="K10" t="str">
-        <v>[SP:12603-SP1] PM Events and EBS Counters description modification</v>
+        <v>[SP:11160-SP4] Add verification of counter pmRwrEutranUeSuccTs</v>
       </c>
       <c r="L10" t="str">
-        <v>2024-07-03</v>
+        <v>2023-08-04</v>
       </c>
       <c r="M10" t="str">
-        <v>2024-07-03</v>
+        <v>2023-08-04</v>
       </c>
       <c r="N10" t="str">
-        <v>source</v>
+        <v>test</v>
       </c>
       <c r="O10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Z10">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="AC10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>15.48</v>
+        <v>31.56</v>
       </c>
       <c r="AE10">
-        <v>51.47</v>
+        <v>44.38</v>
       </c>
       <c r="AF10">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="AG10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>33.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B11" t="str">
-        <v>14b987ba2e3ac1c66a7667ab17b3242e36f5035d</v>
+        <v>3d930db389a5b02764b9a75f87fc9b37fad38602</v>
       </c>
       <c r="C11" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:14b987ba2e3ac1c66a7667ab17b3242e36f5035d</v>
+        <v>https://gerrit.ericsson.se/q/commit:3d930db389a5b02764b9a75f87fc9b37fad38602</v>
       </c>
       <c r="D11" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E11" t="str">
-        <v>epiopod</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F11" t="str">
-        <v>Piotr Podsiedzik</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G11" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H11" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I11" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J11" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K11" t="str">
-        <v>[SP:12603-SP1] add SC to control the functionality</v>
+        <v>[SP:11160-SP4] MCT: Additional verification of pmRwrEutranUeSuccTs</v>
       </c>
       <c r="L11" t="str">
-        <v>2024-07-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="M11" t="str">
-        <v>2024-07-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="N11" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
         <v>18</v>
       </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-      <c r="R11">
-        <v>44</v>
-      </c>
-      <c r="S11">
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>15</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
-      <c r="X11">
-        <v>3</v>
-      </c>
-      <c r="Y11">
-        <v>36</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
         <v>18</v>
       </c>
-      <c r="AA11">
-        <v>18</v>
-      </c>
-      <c r="AB11">
-        <v>54</v>
-      </c>
       <c r="AC11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>15.65</v>
+        <v>32.12</v>
       </c>
       <c r="AE11">
-        <v>52.29</v>
+        <v>44.38</v>
       </c>
       <c r="AF11">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B12" t="str">
-        <v>ff13709e1f6f515bfc8183b552d7072adf8e23df</v>
+        <v>bf07d871a4843646a2d2f97ab16ca7500ac6652e</v>
       </c>
       <c r="C12" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:ff13709e1f6f515bfc8183b552d7072adf8e23df</v>
+        <v>https://gerrit.ericsson.se/q/commit:bf07d871a4843646a2d2f97ab16ca7500ac6652e</v>
       </c>
       <c r="D12" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E12" t="str">
-        <v>ekraali</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F12" t="str">
-        <v>Alicja Krautsztrung</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G12" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H12" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I12" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J12" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K12" t="str">
-        <v>[SP:12603-SP1] NREXTCAUPCCI_TO_PCELL_OFFLOAD_PM_UPDATE_IND handling change</v>
+        <v>[SP:11160-SP4] Moves tc133 and tc134 from sbt_soaking to sbt</v>
       </c>
       <c r="L12" t="str">
-        <v>2024-07-09</v>
+        <v>2023-08-09</v>
       </c>
       <c r="M12" t="str">
-        <v>2024-07-10</v>
+        <v>2023-08-09</v>
       </c>
       <c r="N12" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O12">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-304</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>-204</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>6</v>
       </c>
-      <c r="Y12">
-        <v>92</v>
-      </c>
-      <c r="Z12">
-        <v>600</v>
-      </c>
-      <c r="AA12">
-        <v>-508</v>
-      </c>
-      <c r="AB12">
-        <v>692</v>
-      </c>
       <c r="AC12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>19.73</v>
+        <v>32.3</v>
       </c>
       <c r="AE12">
-        <v>60.69</v>
+        <v>44.38</v>
       </c>
       <c r="AF12">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AG12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>14.29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B13" t="str">
-        <v>560808271c0c1294131c17c322cfe18407f3bed2</v>
+        <v>75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</v>
       </c>
       <c r="C13" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:560808271c0c1294131c17c322cfe18407f3bed2</v>
+        <v>https://gerrit.ericsson.se/q/commit:75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</v>
       </c>
       <c r="D13" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E13" t="str">
-        <v>qkryola</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F13" t="str">
-        <v>Krzysztof Olas XX</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G13" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H13" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I13" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J13" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K13" t="str">
-        <v>[SP:12603-SP1] US4b UL PUSCH RBSym usage with DRB granularity (SCell)</v>
+        <v>[SP:11160-SP4] MCT: Removes SC bwtishoWithRwrEnable</v>
       </c>
       <c r="L13" t="str">
-        <v>2024-07-12</v>
+        <v>2023-08-17</v>
       </c>
       <c r="M13" t="str">
-        <v>2024-07-12</v>
+        <v>2023-08-17</v>
       </c>
       <c r="N13" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O13">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="U13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V13">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="W13">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="X13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="Z13">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="AA13">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AB13">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AC13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>22.74</v>
+        <v>35.21</v>
       </c>
       <c r="AE13">
-        <v>65.22</v>
+        <v>44.38</v>
       </c>
       <c r="AF13">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH13">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B14" t="str">
-        <v>a3aef16cb57d239fae2abcbabb689bfce541e647</v>
+        <v>62bc878b02ab6e7fa9d27a90e583502059487392</v>
       </c>
       <c r="C14" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:a3aef16cb57d239fae2abcbabb689bfce541e647</v>
+        <v>https://gerrit.ericsson.se/q/commit:62bc878b02ab6e7fa9d27a90e583502059487392</v>
       </c>
       <c r="D14" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E14" t="str">
-        <v>ekraali</v>
+        <v>etobkon</v>
       </c>
       <c r="F14" t="str">
-        <v>Alicja Krautsztrung</v>
+        <v>Tobias König</v>
       </c>
       <c r="G14" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H14" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I14" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J14" t="str">
-        <v>5g/if/e5lif</v>
+        <v>5g/rc</v>
       </c>
       <c r="K14" t="str">
-        <v>[SP:12603-SP1] Add new parameters to E5CA_PM_UPDATE_IND</v>
+        <v>[SP:11160-SP4] Remove system constant bwtishoWithRwrEnable</v>
       </c>
       <c r="L14" t="str">
-        <v>2024-07-15</v>
+        <v>2023-08-17</v>
       </c>
       <c r="M14" t="str">
-        <v>2024-07-15</v>
+        <v>2023-08-17</v>
       </c>
       <c r="N14" t="str">
         <v>source test</v>
       </c>
       <c r="O14">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>-141</v>
       </c>
       <c r="R14">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-116</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y14">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="AA14">
-        <v>47</v>
+        <v>-257</v>
       </c>
       <c r="AB14">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="AC14">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AD14">
-        <v>22.78</v>
+        <v>38.8</v>
       </c>
       <c r="AE14">
-        <v>66.28</v>
+        <v>57.1</v>
       </c>
       <c r="AF14">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>12603-SP1</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B15" t="str">
-        <v>f0d3471c510cba621280b5b6fa6fc19e19546c82</v>
+        <v>51ee21a6038faf08a8bc920171f527f71bebaec3</v>
       </c>
       <c r="C15" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f0d3471c510cba621280b5b6fa6fc19e19546c82</v>
+        <v>https://gerrit.ericsson.se/q/commit:51ee21a6038faf08a8bc920171f527f71bebaec3</v>
       </c>
       <c r="D15" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E15" t="str">
-        <v>etomaje</v>
+        <v>etobkon</v>
       </c>
       <c r="F15" t="str">
-        <v>Tomasz Majewski X</v>
+        <v>Tobias König</v>
       </c>
       <c r="G15" t="str">
-        <v>Lodz</v>
+        <v>SE</v>
       </c>
       <c r="H15" t="str">
-        <v>Poland</v>
+        <v>Sweden</v>
       </c>
       <c r="I15" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J15" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K15" t="str">
-        <v>[SP:12603-SP1] Handling of HARQ fail counter for fastCA.</v>
+        <v>[SP:11160-SP4] Set status USED for pmRwrEutranUeSuccTs</v>
       </c>
       <c r="L15" t="str">
-        <v>2024-07-18</v>
+        <v>2023-08-18</v>
       </c>
       <c r="M15" t="str">
-        <v>2024-07-18</v>
+        <v>2023-08-18</v>
       </c>
       <c r="N15" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>3</v>
       </c>
-      <c r="R15">
-        <v>13</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>175</v>
-      </c>
-      <c r="U15">
-        <v>16</v>
-      </c>
-      <c r="V15">
-        <v>159</v>
-      </c>
-      <c r="W15">
-        <v>191</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>183</v>
-      </c>
       <c r="Z15">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="AC15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>26.05</v>
+        <v>38.8</v>
       </c>
       <c r="AE15">
-        <v>66.52</v>
+        <v>57.57</v>
       </c>
       <c r="AF15">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="AG15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>33.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B16" t="str">
-        <v>bac48880df8775aaf7040bae5b04358f09ae08fa</v>
+        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
       </c>
       <c r="C16" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:bac48880df8775aaf7040bae5b04358f09ae08fa</v>
+        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
       </c>
       <c r="D16" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E16" t="str">
-        <v>eciemac</v>
+        <v>ehsxmng</v>
       </c>
       <c r="F16" t="str">
-        <v>Maciej Cieslewicz</v>
+        <v>Ming-Chen Hsu</v>
       </c>
       <c r="G16" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H16" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I16" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J16" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K16" t="str">
-        <v>[SP:12603-SP1] Traces updates for UPCUEULNR.2207/.1516/.2181</v>
+        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
       </c>
       <c r="L16" t="str">
-        <v>2024-07-19</v>
+        <v>2023-11-18</v>
       </c>
       <c r="M16" t="str">
-        <v>2024-07-19</v>
+        <v>2023-11-18</v>
       </c>
       <c r="N16" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O16">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>4</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>4</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <v>4</v>
       </c>
-      <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16">
-        <v>77</v>
-      </c>
-      <c r="Z16">
-        <v>22</v>
-      </c>
-      <c r="AA16">
-        <v>55</v>
-      </c>
-      <c r="AB16">
-        <v>99</v>
-      </c>
       <c r="AC16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>26.12</v>
+        <v>38.8</v>
       </c>
       <c r="AE16">
-        <v>68.28</v>
+        <v>57.88</v>
       </c>
       <c r="AF16">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="AH16">
-        <v>100</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B17" t="str">
-        <v>e2fbe2beb66ac8c575269ae55b753ac77e6eaf20</v>
+        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
       </c>
       <c r="C17" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:e2fbe2beb66ac8c575269ae55b753ac77e6eaf20</v>
+        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
       </c>
       <c r="D17" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E17" t="str">
-        <v>ekraali</v>
+        <v>ehsxmng</v>
       </c>
       <c r="F17" t="str">
-        <v>Alicja Krautsztrung</v>
+        <v>Ming-Chen Hsu</v>
       </c>
       <c r="G17" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H17" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I17" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J17" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K17" t="str">
-        <v>[SP:12603-SP1] DL HARQ observability interworking with CA</v>
+        <v>[SP:11022-SP12] AggresiveUss SCs</v>
       </c>
       <c r="L17" t="str">
-        <v>2024-07-20</v>
+        <v>2023-12-16</v>
       </c>
       <c r="M17" t="str">
-        <v>2024-07-21</v>
+        <v>2023-12-16</v>
       </c>
       <c r="N17" t="str">
         <v>source test</v>
       </c>
       <c r="O17">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="P17">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="R17">
-        <v>515</v>
+        <v>187</v>
       </c>
       <c r="S17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>712</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>690</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>734</v>
+        <v>8</v>
       </c>
       <c r="X17">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Y17">
-        <v>1159</v>
+        <v>192</v>
       </c>
       <c r="Z17">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="AA17">
-        <v>1069</v>
+        <v>189</v>
       </c>
       <c r="AB17">
-        <v>1249</v>
+        <v>195</v>
       </c>
       <c r="AC17">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AD17">
-        <v>38.69</v>
+        <v>39.05</v>
       </c>
       <c r="AE17">
-        <v>77.81</v>
+        <v>72.46</v>
       </c>
       <c r="AF17">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AH17">
-        <v>50</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B18" t="str">
-        <v>d782b7bba4cdf1b26f3cf30ca809e6711c58fd47</v>
+        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
       </c>
       <c r="C18" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:d782b7bba4cdf1b26f3cf30ca809e6711c58fd47</v>
+        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
       </c>
       <c r="D18" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E18" t="str">
-        <v>ekraali</v>
+        <v>ehsxmng</v>
       </c>
       <c r="F18" t="str">
-        <v>Alicja Krautsztrung</v>
+        <v>Ming-Chen Hsu</v>
       </c>
       <c r="G18" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H18" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I18" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J18" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K18" t="str">
-        <v>[SP:12603-SP1] MCS post buffer size improvement</v>
+        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
       </c>
       <c r="L18" t="str">
-        <v>2024-07-25</v>
+        <v>2023-12-20</v>
       </c>
       <c r="M18" t="str">
-        <v>2024-07-25</v>
+        <v>2023-12-20</v>
       </c>
       <c r="N18" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="P18">
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="Q18">
-        <v>-1</v>
-      </c>
-      <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
       <c r="V18">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB18">
         <v>5</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD18">
-        <v>38.69</v>
+        <v>39.14</v>
       </c>
       <c r="AE18">
-        <v>77.9</v>
+        <v>72.62</v>
       </c>
       <c r="AF18">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="AG18">
         <v>4</v>
@@ -2288,1171 +2288,443 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B19" t="str">
-        <v>295f7849d72a448dcc8d28adb0efe42e523d18b8</v>
+        <v>f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
       </c>
       <c r="C19" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:295f7849d72a448dcc8d28adb0efe42e523d18b8</v>
+        <v>https://gerrit.ericsson.se/q/commit:f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
       </c>
       <c r="D19" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E19" t="str">
-        <v>ezacwoj</v>
+        <v>earubut</v>
       </c>
       <c r="F19" t="str">
-        <v>Wojciech Zacharski</v>
+        <v>Arun Butte</v>
       </c>
       <c r="G19" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H19" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I19" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J19" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K19" t="str">
-        <v>[SP:12603-SP1] ulObsPerUeMacHarqIncludeScellEnable SC removal</v>
+        <v>[SP:11022-SP12] Support additonal USS in UPCUE DL</v>
       </c>
       <c r="L19" t="str">
-        <v>2024-08-06</v>
+        <v>2023-12-28</v>
       </c>
       <c r="M19" t="str">
-        <v>2024-08-06</v>
+        <v>2023-12-28</v>
       </c>
       <c r="N19" t="str">
         <v>source test</v>
       </c>
       <c r="O19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P19">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-98</v>
+        <v>25</v>
       </c>
       <c r="R19">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="S19">
         <v>4</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="U19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>-14</v>
+        <v>415</v>
       </c>
       <c r="W19">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>18</v>
+        <v>445</v>
       </c>
       <c r="Z19">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="AA19">
-        <v>-112</v>
+        <v>440</v>
       </c>
       <c r="AB19">
-        <v>148</v>
+        <v>450</v>
       </c>
       <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>51.98</v>
+      </c>
+      <c r="AE19">
+        <v>75.35</v>
+      </c>
+      <c r="AF19">
+        <v>167</v>
+      </c>
+      <c r="AG19">
         <v>8</v>
       </c>
-      <c r="AD19">
-        <v>38.96</v>
-      </c>
-      <c r="AE19">
-        <v>80.34</v>
-      </c>
-      <c r="AF19">
-        <v>105</v>
-      </c>
-      <c r="AG19">
-        <v>12</v>
-      </c>
       <c r="AH19">
-        <v>8.33</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B20" t="str">
-        <v>f7d2ed73d015572e48a2dccbad625e38c3944f64</v>
+        <v>947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
       </c>
       <c r="C20" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:f7d2ed73d015572e48a2dccbad625e38c3944f64</v>
+        <v>https://gerrit.ericsson.se/q/commit:947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
       </c>
       <c r="D20" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E20" t="str">
-        <v>ezacwoj</v>
+        <v>eyatlee</v>
       </c>
       <c r="F20" t="str">
-        <v>Wojciech Zacharski</v>
+        <v>Yat Tat Lee</v>
       </c>
       <c r="G20" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H20" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I20" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J20" t="str">
-        <v>5g/if/pm-du</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K20" t="str">
-        <v>[SP:12603-SP1] PM Events and EBS Counters description modification</v>
+        <v>[SP:11022-SP12] Aggressive USS AL candList dractl</v>
       </c>
       <c r="L20" t="str">
-        <v>2024-08-12</v>
+        <v>2023-12-29</v>
       </c>
       <c r="M20" t="str">
-        <v>2024-08-12</v>
+        <v>2023-12-30</v>
       </c>
       <c r="N20" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O20">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="P20">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="R20">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="S20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y20">
-        <v>49</v>
+        <v>1142</v>
       </c>
       <c r="Z20">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="AB20">
-        <v>98</v>
+        <v>1164</v>
       </c>
       <c r="AC20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD20">
-        <v>38.96</v>
+        <v>81.56</v>
       </c>
       <c r="AE20">
-        <v>82.16</v>
+        <v>91.58</v>
       </c>
       <c r="AF20">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="AG20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>16.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B21" t="str">
-        <v>20208b4e9456471d19a5623c19d15248647ff651</v>
+        <v>908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
       </c>
       <c r="C21" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:20208b4e9456471d19a5623c19d15248647ff651</v>
+        <v>https://gerrit.ericsson.se/q/commit:908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
       </c>
       <c r="D21" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E21" t="str">
-        <v>etomaos</v>
+        <v>etcholi</v>
       </c>
       <c r="F21" t="str">
-        <v>Tomasz Ostrowski T</v>
+        <v>Olimpia Martyre Tchakounte Wounkep</v>
       </c>
       <c r="G21" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H21" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I21" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J21" t="str">
         <v>lte/ebb</v>
       </c>
       <c r="K21" t="str">
-        <v>[SP:12603-SP1] US2 &amp; US3 new HARQ and pathloss counters</v>
+        <v>[SP:11022-SP12] Support Additional USS UPCUE UL</v>
       </c>
       <c r="L21" t="str">
-        <v>2024-06-16</v>
+        <v>2024-01-05</v>
       </c>
       <c r="M21" t="str">
-        <v>2024-08-28</v>
+        <v>2024-01-05</v>
       </c>
       <c r="N21" t="str">
         <v>source test</v>
       </c>
       <c r="O21">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="P21">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Q21">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="S21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>1334</v>
+        <v>348</v>
       </c>
       <c r="U21">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1082</v>
+        <v>348</v>
       </c>
       <c r="W21">
-        <v>1586</v>
+        <v>348</v>
       </c>
       <c r="X21">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1546</v>
+        <v>365</v>
       </c>
       <c r="Z21">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="AA21">
-        <v>1254</v>
+        <v>358</v>
       </c>
       <c r="AB21">
-        <v>1838</v>
+        <v>372</v>
       </c>
       <c r="AC21">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AD21">
-        <v>66.12</v>
+        <v>92.33</v>
       </c>
       <c r="AE21">
-        <v>86.82</v>
+        <v>93.45</v>
       </c>
       <c r="AF21">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="AG21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AH21">
-        <v>6.25</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>12603-SP1</v>
+        <v>11022-SP12</v>
       </c>
       <c r="B22" t="str">
-        <v>3dad73e6548ff98ecede0c0cb8612c47e25169ac</v>
+        <v>f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
       </c>
       <c r="C22" t="str">
-        <v>https://gerrit-delta.gic.ericsson.se/q/commit:3dad73e6548ff98ecede0c0cb8612c47e25169ac</v>
+        <v>https://gerrit.ericsson.se/q/commit:f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
       </c>
       <c r="D22" t="str">
-        <v>gerrit-delta</v>
+        <v>gerrit</v>
       </c>
       <c r="E22" t="str">
-        <v>eciemac</v>
+        <v>ejanhng</v>
       </c>
       <c r="F22" t="str">
-        <v>Maciej Cieslewicz</v>
+        <v>Jian Huang</v>
       </c>
       <c r="G22" t="str">
-        <v>Lodz</v>
+        <v>Ottawa</v>
       </c>
       <c r="H22" t="str">
-        <v>Poland</v>
+        <v>Canada</v>
       </c>
       <c r="I22" t="str">
-        <v>BNEW EUIR RS PD3 PEA Prod Eng A</v>
+        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
       </c>
       <c r="J22" t="str">
-        <v>5g/if/pm-du</v>
+        <v>lte/ebb</v>
       </c>
       <c r="K22" t="str">
-        <v>[SP:12603-SP1] Updated status to USED</v>
+        <v>[SP:11022-SP12] Fix for unconfigured aggressive USS candidates list</v>
       </c>
       <c r="L22" t="str">
-        <v>2024-10-04</v>
+        <v>2024-02-16</v>
       </c>
       <c r="M22" t="str">
-        <v>2024-10-04</v>
+        <v>2024-02-16</v>
       </c>
       <c r="N22" t="str">
-        <v>source</v>
+        <v>source test</v>
       </c>
       <c r="O22">
+        <v>79</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>74</v>
+      </c>
+      <c r="R22">
         <v>84</v>
       </c>
-      <c r="P22">
-        <v>84</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>168</v>
-      </c>
       <c r="S22">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="Z22">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AB22">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="AC22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AD22">
-        <v>66.12</v>
+        <v>100</v>
       </c>
       <c r="AE22">
-        <v>89.93</v>
+        <v>100</v>
       </c>
       <c r="AF22">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="AG22">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AH22">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B23" t="str">
-        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
-      </c>
-      <c r="C23" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
-      </c>
-      <c r="D23" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E23" t="str">
-        <v>ehsxmng</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Ming-Chen Hsu</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H23" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I23" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J23" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K23" t="str">
-        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
-      </c>
-      <c r="L23" t="str">
-        <v>2023-11-18</v>
-      </c>
-      <c r="M23" t="str">
-        <v>2023-11-18</v>
-      </c>
-      <c r="N23" t="str">
-        <v>source</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>4</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>4</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>4</v>
-      </c>
-      <c r="AB23">
-        <v>4</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>66.12</v>
-      </c>
-      <c r="AE23">
-        <v>90.01</v>
-      </c>
-      <c r="AF23">
-        <v>-157</v>
-      </c>
-      <c r="AG23">
-        <v>-321</v>
-      </c>
-      <c r="AH23">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B24" t="str">
-        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
-      </c>
-      <c r="C24" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
-      </c>
-      <c r="D24" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E24" t="str">
-        <v>ehsxmng</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Ming-Chen Hsu</v>
-      </c>
-      <c r="G24" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H24" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I24" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J24" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K24" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs</v>
-      </c>
-      <c r="L24" t="str">
-        <v>2023-12-16</v>
-      </c>
-      <c r="M24" t="str">
-        <v>2023-12-16</v>
-      </c>
-      <c r="N24" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O24">
-        <v>184</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>181</v>
-      </c>
-      <c r="R24">
-        <v>187</v>
-      </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>8</v>
-      </c>
-      <c r="W24">
-        <v>8</v>
-      </c>
-      <c r="X24">
-        <v>2</v>
-      </c>
-      <c r="Y24">
-        <v>192</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>189</v>
-      </c>
-      <c r="AB24">
-        <v>195</v>
-      </c>
-      <c r="AC24">
-        <v>9</v>
-      </c>
-      <c r="AD24">
-        <v>66.26</v>
-      </c>
-      <c r="AE24">
-        <v>93.47</v>
-      </c>
-      <c r="AF24">
-        <v>-129</v>
-      </c>
-      <c r="AG24">
-        <v>28</v>
-      </c>
-      <c r="AH24">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B25" t="str">
-        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
-      </c>
-      <c r="C25" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
-      </c>
-      <c r="D25" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E25" t="str">
-        <v>ehsxmng</v>
-      </c>
-      <c r="F25" t="str">
-        <v>Ming-Chen Hsu</v>
-      </c>
-      <c r="G25" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H25" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I25" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J25" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K25" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
-      </c>
-      <c r="L25" t="str">
-        <v>2023-12-20</v>
-      </c>
-      <c r="M25" t="str">
-        <v>2023-12-20</v>
-      </c>
-      <c r="N25" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>-3</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-      <c r="AA25">
-        <v>-3</v>
-      </c>
-      <c r="AB25">
-        <v>5</v>
-      </c>
-      <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AD25">
-        <v>66.31</v>
-      </c>
-      <c r="AE25">
-        <v>93.5</v>
-      </c>
-      <c r="AF25">
-        <v>-125</v>
-      </c>
-      <c r="AG25">
-        <v>4</v>
-      </c>
-      <c r="AH25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B26" t="str">
-        <v>f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
-      </c>
-      <c r="C26" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
-      </c>
-      <c r="D26" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E26" t="str">
-        <v>earubut</v>
-      </c>
-      <c r="F26" t="str">
-        <v>Arun Butte</v>
-      </c>
-      <c r="G26" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H26" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I26" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J26" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K26" t="str">
-        <v>[SP:11022-SP12] Support additonal USS in UPCUE DL</v>
-      </c>
-      <c r="L26" t="str">
-        <v>2023-12-28</v>
-      </c>
-      <c r="M26" t="str">
-        <v>2023-12-28</v>
-      </c>
-      <c r="N26" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O26">
-        <v>30</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>25</v>
-      </c>
-      <c r="R26">
-        <v>35</v>
-      </c>
-      <c r="S26">
-        <v>4</v>
-      </c>
-      <c r="T26">
-        <v>415</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>415</v>
-      </c>
-      <c r="W26">
-        <v>415</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>445</v>
-      </c>
-      <c r="Z26">
-        <v>5</v>
-      </c>
-      <c r="AA26">
-        <v>440</v>
-      </c>
-      <c r="AB26">
-        <v>450</v>
-      </c>
-      <c r="AC26">
-        <v>5</v>
-      </c>
-      <c r="AD26">
-        <v>73.42</v>
-      </c>
-      <c r="AE26">
-        <v>94.15</v>
-      </c>
-      <c r="AF26">
-        <v>-117</v>
-      </c>
-      <c r="AG26">
-        <v>8</v>
-      </c>
-      <c r="AH26">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B27" t="str">
-        <v>947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
-      </c>
-      <c r="C27" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
-      </c>
-      <c r="D27" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E27" t="str">
-        <v>eyatlee</v>
-      </c>
-      <c r="F27" t="str">
-        <v>Yat Tat Lee</v>
-      </c>
-      <c r="G27" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H27" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I27" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J27" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K27" t="str">
-        <v>[SP:11022-SP12] Aggressive USS AL candList dractl</v>
-      </c>
-      <c r="L27" t="str">
-        <v>2023-12-29</v>
-      </c>
-      <c r="M27" t="str">
-        <v>2023-12-30</v>
-      </c>
-      <c r="N27" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O27">
-        <v>197</v>
-      </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
-      <c r="Q27">
-        <v>186</v>
-      </c>
-      <c r="R27">
-        <v>208</v>
-      </c>
-      <c r="S27">
-        <v>3</v>
-      </c>
-      <c r="T27">
-        <v>945</v>
-      </c>
-      <c r="U27">
-        <v>11</v>
-      </c>
-      <c r="V27">
-        <v>934</v>
-      </c>
-      <c r="W27">
-        <v>956</v>
-      </c>
-      <c r="X27">
-        <v>14</v>
-      </c>
-      <c r="Y27">
-        <v>1142</v>
-      </c>
-      <c r="Z27">
-        <v>22</v>
-      </c>
-      <c r="AA27">
-        <v>1120</v>
-      </c>
-      <c r="AB27">
-        <v>1164</v>
-      </c>
-      <c r="AC27">
-        <v>17</v>
-      </c>
-      <c r="AD27">
-        <v>89.79</v>
-      </c>
-      <c r="AE27">
-        <v>98</v>
-      </c>
-      <c r="AF27">
-        <v>-115</v>
-      </c>
-      <c r="AG27">
-        <v>2</v>
-      </c>
-      <c r="AH27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B28" t="str">
-        <v>908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
-      </c>
-      <c r="C28" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
-      </c>
-      <c r="D28" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E28" t="str">
-        <v>etcholi</v>
-      </c>
-      <c r="F28" t="str">
-        <v>Olimpia Martyre Tchakounte Wounkep</v>
-      </c>
-      <c r="G28" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H28" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I28" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J28" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K28" t="str">
-        <v>[SP:11022-SP12] Support Additional USS UPCUE UL</v>
-      </c>
-      <c r="L28" t="str">
-        <v>2024-01-05</v>
-      </c>
-      <c r="M28" t="str">
-        <v>2024-01-05</v>
-      </c>
-      <c r="N28" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O28">
-        <v>17</v>
-      </c>
-      <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-      <c r="R28">
-        <v>24</v>
-      </c>
-      <c r="S28">
-        <v>3</v>
-      </c>
-      <c r="T28">
-        <v>348</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>348</v>
-      </c>
-      <c r="W28">
-        <v>348</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>365</v>
-      </c>
-      <c r="Z28">
-        <v>7</v>
-      </c>
-      <c r="AA28">
-        <v>358</v>
-      </c>
-      <c r="AB28">
-        <v>372</v>
-      </c>
-      <c r="AC28">
-        <v>4</v>
-      </c>
-      <c r="AD28">
-        <v>95.75</v>
-      </c>
-      <c r="AE28">
-        <v>98.45</v>
-      </c>
-      <c r="AF28">
-        <v>-109</v>
-      </c>
-      <c r="AG28">
-        <v>6</v>
-      </c>
-      <c r="AH28">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>11022-SP12</v>
-      </c>
-      <c r="B29" t="str">
-        <v>f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
-      </c>
-      <c r="C29" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
-      </c>
-      <c r="D29" t="str">
-        <v>gerrit</v>
-      </c>
-      <c r="E29" t="str">
-        <v>ejanhng</v>
-      </c>
-      <c r="F29" t="str">
-        <v>Jian Huang</v>
-      </c>
-      <c r="G29" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="H29" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I29" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
-      </c>
-      <c r="J29" t="str">
-        <v>lte/ebb</v>
-      </c>
-      <c r="K29" t="str">
-        <v>[SP:11022-SP12] Fix for unconfigured aggressive USS candidates list</v>
-      </c>
-      <c r="L29" t="str">
+      <c r="AI23">
+        <v>217</v>
+      </c>
+      <c r="AJ23" t="str">
+        <v>2023-07-14</v>
+      </c>
+      <c r="AK23" t="str">
         <v>2024-02-16</v>
       </c>
-      <c r="M29" t="str">
-        <v>2024-02-16</v>
-      </c>
-      <c r="N29" t="str">
-        <v>source test</v>
-      </c>
-      <c r="O29">
-        <v>79</v>
-      </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
-      <c r="Q29">
-        <v>74</v>
-      </c>
-      <c r="R29">
-        <v>84</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
-      </c>
-      <c r="T29">
-        <v>248</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>248</v>
-      </c>
-      <c r="W29">
-        <v>248</v>
-      </c>
-      <c r="X29">
-        <v>2</v>
-      </c>
-      <c r="Y29">
-        <v>327</v>
-      </c>
-      <c r="Z29">
-        <v>5</v>
-      </c>
-      <c r="AA29">
-        <v>322</v>
-      </c>
-      <c r="AB29">
-        <v>332</v>
-      </c>
-      <c r="AC29">
-        <v>9</v>
-      </c>
-      <c r="AD29">
-        <v>100</v>
-      </c>
-      <c r="AE29">
-        <v>100</v>
-      </c>
-      <c r="AF29">
-        <v>-67</v>
-      </c>
-      <c r="AG29">
-        <v>42</v>
-      </c>
-      <c r="AH29">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="AI30">
-        <v>-67</v>
-      </c>
-      <c r="AJ30" t="str">
-        <v>2024-04-23</v>
-      </c>
-      <c r="AK30" t="str">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AL30">
-        <v>5403</v>
-      </c>
-      <c r="AM30">
-        <v>5839</v>
-      </c>
-      <c r="AN30">
-        <v>11242</v>
+      <c r="AL23">
+        <v>1282</v>
+      </c>
+      <c r="AM23">
+        <v>3232</v>
+      </c>
+      <c r="AN23">
+        <v>4514</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AN30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AN23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/csv/modifiedData.xlsx
+++ b/backend/csv/modifiedData.xlsx
@@ -544,13 +544,13 @@
         <v>Ming-Chen Hsu</v>
       </c>
       <c r="G2" t="str">
-        <v>Ottawa</v>
+        <v>unknown</v>
       </c>
       <c r="H2" t="str">
-        <v>Canada</v>
+        <v>Unknown</v>
       </c>
       <c r="I2" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>unknown</v>
       </c>
       <c r="J2" t="str">
         <v>lte/ebb</v>
@@ -642,13 +642,13 @@
         <v>Ming-Chen Hsu</v>
       </c>
       <c r="G3" t="str">
-        <v>Ottawa</v>
+        <v>unknown</v>
       </c>
       <c r="H3" t="str">
-        <v>Canada</v>
+        <v>Unknown</v>
       </c>
       <c r="I3" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>unknown</v>
       </c>
       <c r="J3" t="str">
         <v>lte/ebb</v>
@@ -746,13 +746,13 @@
         <v>Ming-Chen Hsu</v>
       </c>
       <c r="G4" t="str">
-        <v>Ottawa</v>
+        <v>unknown</v>
       </c>
       <c r="H4" t="str">
-        <v>Canada</v>
+        <v>Unknown</v>
       </c>
       <c r="I4" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>unknown</v>
       </c>
       <c r="J4" t="str">
         <v>lte/ebb</v>

--- a/backend/csv/modifiedData.xlsx
+++ b/backend/csv/modifiedData.xlsx
@@ -621,6 +621,9 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">

--- a/backend/csv/modifiedData.xlsx
+++ b/backend/csv/modifiedData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,58 +526,58 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B2" t="str">
-        <v>cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</v>
       </c>
       <c r="C2" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:cb7c6bb2aa96937c27ea3cfcf2732b49f729aa1b</v>
+        <v>https://gerrit.ericsson.se/q/commit:bfab8079a825ad4c4e9eb5bab97bc6f4c00863a7</v>
       </c>
       <c r="D2" t="str">
         <v>gerrit</v>
       </c>
       <c r="E2" t="str">
-        <v>ehsxmng</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F2" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G2" t="str">
-        <v>unknown</v>
+        <v>SE</v>
       </c>
       <c r="H2" t="str">
-        <v>Unknown</v>
+        <v>Sweden</v>
       </c>
       <c r="I2" t="str">
-        <v>unknown</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J2" t="str">
-        <v>lte/ebb</v>
+        <v>5g/if/iro</v>
       </c>
       <c r="K2" t="str">
-        <v>[SP:11022-SP12] Update cellInfoId Interface</v>
+        <v>[SP:11160-SP4] Adds RwrTrigger value TRAFFIC_STEERING</v>
       </c>
       <c r="L2" t="str">
-        <v>2023-11-18</v>
+        <v>2023-07-14</v>
       </c>
       <c r="M2" t="str">
-        <v>2023-11-18</v>
+        <v>2023-07-14</v>
       </c>
       <c r="N2" t="str">
         <v>source</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -598,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.74</v>
+        <v>0.27</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -627,412 +627,412 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B3" t="str">
-        <v>236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>f232e2b65bc4d630d56828e67b7488d38836b7bc</v>
       </c>
       <c r="C3" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:236fd51082f64ea82e70fd52f04841af3463f820</v>
+        <v>https://gerrit.ericsson.se/q/commit:f232e2b65bc4d630d56828e67b7488d38836b7bc</v>
       </c>
       <c r="D3" t="str">
         <v>gerrit</v>
       </c>
       <c r="E3" t="str">
-        <v>ehsxmng</v>
+        <v>etobkon</v>
       </c>
       <c r="F3" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Tobias König</v>
       </c>
       <c r="G3" t="str">
-        <v>unknown</v>
+        <v>SE</v>
       </c>
       <c r="H3" t="str">
-        <v>Unknown</v>
+        <v>Sweden</v>
       </c>
       <c r="I3" t="str">
-        <v>unknown</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J3" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K3" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs</v>
+        <v>[SP:11160-SP4] Adds system constant bwtishoWithRwrEnable</v>
       </c>
       <c r="L3" t="str">
-        <v>2023-12-16</v>
+        <v>2023-07-15</v>
       </c>
       <c r="M3" t="str">
-        <v>2023-12-16</v>
+        <v>2023-07-15</v>
       </c>
       <c r="N3" t="str">
         <v>source test</v>
       </c>
       <c r="O3">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="R3">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y3">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="AA3">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AB3">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="AC3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AD3">
-        <v>0.4</v>
+        <v>16.75</v>
       </c>
       <c r="AE3">
-        <v>35.11</v>
+        <v>27.91</v>
       </c>
       <c r="AF3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>3.57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B4" t="str">
-        <v>3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>dc811601cafd85f82c1eb2d42f6e5a88349a4d37</v>
       </c>
       <c r="C4" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:3f751ade39a5776e1de9e55a65b132c586343e0a</v>
+        <v>https://gerrit.ericsson.se/q/commit:dc811601cafd85f82c1eb2d42f6e5a88349a4d37</v>
       </c>
       <c r="D4" t="str">
         <v>gerrit</v>
       </c>
       <c r="E4" t="str">
-        <v>ehsxmng</v>
+        <v>etobkon</v>
       </c>
       <c r="F4" t="str">
-        <v>Ming-Chen Hsu</v>
+        <v>Tobias König</v>
       </c>
       <c r="G4" t="str">
-        <v>unknown</v>
+        <v>SE</v>
       </c>
       <c r="H4" t="str">
-        <v>Unknown</v>
+        <v>Sweden</v>
       </c>
       <c r="I4" t="str">
-        <v>unknown</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J4" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K4" t="str">
-        <v>[SP:11022-SP12] AggresiveUss SCs Fix</v>
+        <v>[SP:11160-SP4] UE, Add traffic_eval::Release to TmoTBwtisho</v>
       </c>
       <c r="L4" t="str">
-        <v>2023-12-20</v>
+        <v>2023-07-17</v>
       </c>
       <c r="M4" t="str">
-        <v>2023-12-20</v>
+        <v>2023-07-17</v>
       </c>
       <c r="N4" t="str">
         <v>source test</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>25</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>25</v>
+      </c>
+      <c r="W4">
+        <v>25</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>31</v>
+      </c>
+      <c r="AB4">
+        <v>31</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>18.74</v>
+      </c>
+      <c r="AE4">
+        <v>28.73</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>-3</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>-3</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>0.56</v>
-      </c>
-      <c r="AE4">
-        <v>35.48</v>
-      </c>
-      <c r="AF4">
-        <v>32</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
       <c r="AH4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B5" t="str">
-        <v>f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+        <v>f0a062620d5af2c91bdb231d9a176c7fb4681145</v>
       </c>
       <c r="C5" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f1d20487a705c5efb6c26a1a397676cea7cd1d59</v>
+        <v>https://gerrit.ericsson.se/q/commit:f0a062620d5af2c91bdb231d9a176c7fb4681145</v>
       </c>
       <c r="D5" t="str">
         <v>gerrit</v>
       </c>
       <c r="E5" t="str">
-        <v>earubut</v>
+        <v>eramobt</v>
       </c>
       <c r="F5" t="str">
-        <v>Arun Butte</v>
+        <v>Morgan Bergkvist</v>
       </c>
       <c r="G5" t="str">
-        <v>Ottawa</v>
+        <v>Linköping</v>
       </c>
       <c r="H5" t="str">
-        <v>Canada</v>
+        <v>Sweden</v>
       </c>
       <c r="I5" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS TPS PB Product B</v>
       </c>
       <c r="J5" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K5" t="str">
-        <v>[SP:11022-SP12] Support additonal USS in UPCUE DL</v>
+        <v>[SP:11160-SP4] TC: Add RWR to BWTISHO handling</v>
       </c>
       <c r="L5" t="str">
-        <v>2023-12-28</v>
+        <v>2023-07-18</v>
       </c>
       <c r="M5" t="str">
-        <v>2023-12-28</v>
+        <v>2023-07-18</v>
       </c>
       <c r="N5" t="str">
         <v>source test</v>
       </c>
       <c r="O5">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="R5">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>246</v>
+      </c>
+      <c r="U5">
+        <v>27</v>
+      </c>
+      <c r="V5">
+        <v>219</v>
+      </c>
+      <c r="W5">
+        <v>273</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>461</v>
+      </c>
+      <c r="Z5">
+        <v>107</v>
+      </c>
+      <c r="AA5">
+        <v>354</v>
+      </c>
+      <c r="AB5">
+        <v>568</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>40.51</v>
+      </c>
+      <c r="AE5">
+        <v>68.7</v>
+      </c>
+      <c r="AF5">
         <v>4</v>
       </c>
-      <c r="T5">
-        <v>415</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>415</v>
-      </c>
-      <c r="W5">
-        <v>415</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>445</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>440</v>
-      </c>
-      <c r="AB5">
-        <v>450</v>
-      </c>
-      <c r="AC5">
-        <v>5</v>
-      </c>
-      <c r="AD5">
-        <v>21.54</v>
-      </c>
-      <c r="AE5">
-        <v>41.91</v>
-      </c>
-      <c r="AF5">
-        <v>40</v>
-      </c>
       <c r="AG5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>12.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B6" t="str">
-        <v>947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+        <v>974d021fed30f61d2b6c03a70fc8b42a4e39dc48</v>
       </c>
       <c r="C6" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:947bf21566c739488dba86d16bf0b9fa44b5d11f</v>
+        <v>https://gerrit.ericsson.se/q/commit:974d021fed30f61d2b6c03a70fc8b42a4e39dc48</v>
       </c>
       <c r="D6" t="str">
         <v>gerrit</v>
       </c>
       <c r="E6" t="str">
-        <v>eyatlee</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F6" t="str">
-        <v>Yat Tat Lee</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G6" t="str">
-        <v>Ottawa</v>
+        <v>SE</v>
       </c>
       <c r="H6" t="str">
-        <v>Canada</v>
+        <v>Sweden</v>
       </c>
       <c r="I6" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J6" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K6" t="str">
-        <v>[SP:11022-SP12] Aggressive USS AL candList dractl</v>
+        <v>[SP:11160-SP4] MCT: tc133_bwtisho_with_rwr_at_pdu_session_setup</v>
       </c>
       <c r="L6" t="str">
-        <v>2023-12-29</v>
+        <v>2023-07-20</v>
       </c>
       <c r="M6" t="str">
-        <v>2023-12-30</v>
+        <v>2023-07-20</v>
       </c>
       <c r="N6" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O6">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>208</v>
       </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>945</v>
-      </c>
       <c r="U6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V6">
-        <v>934</v>
+        <v>195</v>
       </c>
       <c r="W6">
-        <v>956</v>
+        <v>221</v>
       </c>
       <c r="X6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1142</v>
+        <v>208</v>
       </c>
       <c r="Z6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AA6">
-        <v>1120</v>
+        <v>195</v>
       </c>
       <c r="AB6">
-        <v>1164</v>
+        <v>221</v>
       </c>
       <c r="AC6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>69.87</v>
+        <v>58.13</v>
       </c>
       <c r="AE6">
-        <v>80.15</v>
+        <v>68.7</v>
       </c>
       <c r="AF6">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AG6">
         <v>2</v>
@@ -1043,235 +1043,963 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B7" t="str">
-        <v>908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+        <v>30cead9b0ee739e4d90fcb4568f2703fb068638e</v>
       </c>
       <c r="C7" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:908ad9fe675f4521cee80650ccdaf736d2624ba6</v>
+        <v>https://gerrit.ericsson.se/q/commit:30cead9b0ee739e4d90fcb4568f2703fb068638e</v>
       </c>
       <c r="D7" t="str">
         <v>gerrit</v>
       </c>
       <c r="E7" t="str">
-        <v>etcholi</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F7" t="str">
-        <v>Olimpia Martyre Tchakounte Wounkep</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G7" t="str">
-        <v>Ottawa</v>
+        <v>SE</v>
       </c>
       <c r="H7" t="str">
-        <v>Canada</v>
+        <v>Sweden</v>
       </c>
       <c r="I7" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J7" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K7" t="str">
-        <v>[SP:11022-SP12] Support Additional USS UPCUE UL</v>
+        <v>[SP:11160-SP4] MCT: tc134_bwtisho_at_pdu_session_setup_rwr_low_prio</v>
       </c>
       <c r="L7" t="str">
-        <v>2024-01-05</v>
+        <v>2023-07-20</v>
       </c>
       <c r="M7" t="str">
-        <v>2024-01-05</v>
+        <v>2023-07-20</v>
       </c>
       <c r="N7" t="str">
-        <v>source test</v>
+        <v>test</v>
       </c>
       <c r="O7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="W7">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="Z7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="AB7">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="AC7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>87.46</v>
+        <v>80.38</v>
       </c>
       <c r="AE7">
-        <v>84.56</v>
+        <v>68.7</v>
       </c>
       <c r="AF7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AG7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>11022-SP12</v>
+        <v>11160-SP4</v>
       </c>
       <c r="B8" t="str">
-        <v>f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+        <v>ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</v>
       </c>
       <c r="C8" t="str">
-        <v>https://gerrit.ericsson.se/q/commit:f40acfc0f0d41b72ab747d33e34b68dc8eba299d</v>
+        <v>https://gerrit.ericsson.se/q/commit:ffbdc3e27a61f4e86c9a3c602e41693df92c4cba</v>
       </c>
       <c r="D8" t="str">
         <v>gerrit</v>
       </c>
       <c r="E8" t="str">
-        <v>ejanhng</v>
+        <v>ezjeuju</v>
       </c>
       <c r="F8" t="str">
-        <v>Jian Huang</v>
+        <v>Julius Jeuthe</v>
       </c>
       <c r="G8" t="str">
-        <v>Ottawa</v>
+        <v>SE</v>
       </c>
       <c r="H8" t="str">
-        <v>Canada</v>
+        <v>Sweden</v>
       </c>
       <c r="I8" t="str">
-        <v>BNEW EUIR RP PD1 DH PEG Development 1H</v>
+        <v>BNEW EUIR RS PD1 Partners</v>
       </c>
       <c r="J8" t="str">
-        <v>lte/ebb</v>
+        <v>5g/rc</v>
       </c>
       <c r="K8" t="str">
-        <v>[SP:11022-SP12] Fix for unconfigured aggressive USS candidates list</v>
+        <v>[SP:11160-SP4] Sets default value of bwtishoWithRwrEnable to enabled</v>
       </c>
       <c r="L8" t="str">
-        <v>2024-02-16</v>
+        <v>2023-07-21</v>
       </c>
       <c r="M8" t="str">
-        <v>2024-02-16</v>
+        <v>2023-07-31</v>
       </c>
       <c r="N8" t="str">
-        <v>source test</v>
+        <v>source</v>
       </c>
       <c r="O8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AA8">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD8">
-        <v>100</v>
+        <v>80.38</v>
       </c>
       <c r="AE8">
-        <v>100</v>
+        <v>71.68</v>
       </c>
       <c r="AF8">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AG8">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AH8">
-        <v>2.38</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="9">
-      <c r="AI9">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="str">
-        <v>2023-11-18</v>
-      </c>
-      <c r="AK9" t="str">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AL9">
-        <v>544</v>
-      </c>
-      <c r="AM9">
-        <v>1978</v>
-      </c>
-      <c r="AN9">
-        <v>2522</v>
+      <c r="A9" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B9" t="str">
+        <v>c308027bf010fc9b22c6ed714f61f47049592e08</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:c308027bf010fc9b22c6ed714f61f47049592e08</v>
+      </c>
+      <c r="D9" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E9" t="str">
+        <v>etobkon</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Tobias König</v>
+      </c>
+      <c r="G9" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I9" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J9" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K9" t="str">
+        <v>[SP:11160-SP4] Add counter pmRwrEutranUeSuccTs</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="N9" t="str">
+        <v>source</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>40</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>40</v>
+      </c>
+      <c r="AB9">
+        <v>40</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>80.38</v>
+      </c>
+      <c r="AE9">
+        <v>77.1</v>
+      </c>
+      <c r="AF9">
+        <v>19</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B10" t="str">
+        <v>6d4330a6bea3fc0c26c13e86b3674e1173183d84</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:6d4330a6bea3fc0c26c13e86b3674e1173183d84</v>
+      </c>
+      <c r="D10" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E10" t="str">
+        <v>etobkon</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Tobias König</v>
+      </c>
+      <c r="G10" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I10" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J10" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K10" t="str">
+        <v>[SP:11160-SP4] Add verification of counter pmRwrEutranUeSuccTs</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2023-08-04</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2023-08-04</v>
+      </c>
+      <c r="N10" t="str">
+        <v>test</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>12</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>81.34</v>
+      </c>
+      <c r="AE10">
+        <v>77.1</v>
+      </c>
+      <c r="AF10">
+        <v>21</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3d930db389a5b02764b9a75f87fc9b37fad38602</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:3d930db389a5b02764b9a75f87fc9b37fad38602</v>
+      </c>
+      <c r="D11" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ezjeuju</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Julius Jeuthe</v>
+      </c>
+      <c r="G11" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I11" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J11" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K11" t="str">
+        <v>[SP:11160-SP4] MCT: Additional verification of pmRwrEutranUeSuccTs</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2023-08-08</v>
+      </c>
+      <c r="M11" t="str">
+        <v>2023-08-08</v>
+      </c>
+      <c r="N11" t="str">
+        <v>test</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>18</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>15</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>18</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>82.78</v>
+      </c>
+      <c r="AE11">
+        <v>77.1</v>
+      </c>
+      <c r="AF11">
+        <v>25</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>bf07d871a4843646a2d2f97ab16ca7500ac6652e</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:bf07d871a4843646a2d2f97ab16ca7500ac6652e</v>
+      </c>
+      <c r="D12" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ezjeuju</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Julius Jeuthe</v>
+      </c>
+      <c r="G12" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I12" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J12" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K12" t="str">
+        <v>[SP:11160-SP4] Moves tc133 and tc134 from sbt_soaking to sbt</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2023-08-09</v>
+      </c>
+      <c r="M12" t="str">
+        <v>2023-08-09</v>
+      </c>
+      <c r="N12" t="str">
+        <v>test</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>83.25</v>
+      </c>
+      <c r="AE12">
+        <v>77.1</v>
+      </c>
+      <c r="AF12">
+        <v>26</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B13" t="str">
+        <v>75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:75ccff6f6f4e56bc342bdb2058a740a5c4e7867a</v>
+      </c>
+      <c r="D13" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ezjeuju</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Julius Jeuthe</v>
+      </c>
+      <c r="G13" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I13" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J13" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K13" t="str">
+        <v>[SP:11160-SP4] MCT: Removes SC bwtishoWithRwrEnable</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2023-08-17</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2023-08-17</v>
+      </c>
+      <c r="N13" t="str">
+        <v>test</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>64</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>34</v>
+      </c>
+      <c r="W13">
+        <v>94</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>64</v>
+      </c>
+      <c r="Z13">
+        <v>30</v>
+      </c>
+      <c r="AA13">
+        <v>34</v>
+      </c>
+      <c r="AB13">
+        <v>94</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>90.75</v>
+      </c>
+      <c r="AE13">
+        <v>77.1</v>
+      </c>
+      <c r="AF13">
+        <v>34</v>
+      </c>
+      <c r="AG13">
+        <v>8</v>
+      </c>
+      <c r="AH13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>62bc878b02ab6e7fa9d27a90e583502059487392</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:62bc878b02ab6e7fa9d27a90e583502059487392</v>
+      </c>
+      <c r="D14" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E14" t="str">
+        <v>etobkon</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Tobias König</v>
+      </c>
+      <c r="G14" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I14" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J14" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K14" t="str">
+        <v>[SP:11160-SP4] Remove system constant bwtishoWithRwrEnable</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2023-08-17</v>
+      </c>
+      <c r="M14" t="str">
+        <v>2023-08-17</v>
+      </c>
+      <c r="N14" t="str">
+        <v>source test</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>152</v>
+      </c>
+      <c r="Q14">
+        <v>-141</v>
+      </c>
+      <c r="R14">
+        <v>163</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>116</v>
+      </c>
+      <c r="V14">
+        <v>-116</v>
+      </c>
+      <c r="W14">
+        <v>116</v>
+      </c>
+      <c r="X14">
+        <v>11</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>268</v>
+      </c>
+      <c r="AA14">
+        <v>-257</v>
+      </c>
+      <c r="AB14">
+        <v>279</v>
+      </c>
+      <c r="AC14">
+        <v>24</v>
+      </c>
+      <c r="AD14">
+        <v>100</v>
+      </c>
+      <c r="AE14">
+        <v>99.19</v>
+      </c>
+      <c r="AF14">
+        <v>34</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>11160-SP4</v>
+      </c>
+      <c r="B15" t="str">
+        <v>51ee21a6038faf08a8bc920171f527f71bebaec3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://gerrit.ericsson.se/q/commit:51ee21a6038faf08a8bc920171f527f71bebaec3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>gerrit</v>
+      </c>
+      <c r="E15" t="str">
+        <v>etobkon</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Tobias König</v>
+      </c>
+      <c r="G15" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="I15" t="str">
+        <v>BNEW EUIR RS PD1 Partners</v>
+      </c>
+      <c r="J15" t="str">
+        <v>5g/rc</v>
+      </c>
+      <c r="K15" t="str">
+        <v>[SP:11160-SP4] Set status USED for pmRwrEutranUeSuccTs</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2023-08-18</v>
+      </c>
+      <c r="M15" t="str">
+        <v>2023-08-18</v>
+      </c>
+      <c r="N15" t="str">
+        <v>source</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>100</v>
+      </c>
+      <c r="AF15">
+        <v>35</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AI16">
+        <v>35</v>
+      </c>
+      <c r="AJ16" t="str">
+        <v>2023-07-14</v>
+      </c>
+      <c r="AK16" t="str">
+        <v>2023-08-18</v>
+      </c>
+      <c r="AL16">
+        <v>738</v>
+      </c>
+      <c r="AM16">
+        <v>1254</v>
+      </c>
+      <c r="AN16">
+        <v>1992</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AN9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AN16"/>
   </ignoredErrors>
 </worksheet>
 </file>